--- a/nodes_source_analyses/industry/industry_chp_engine_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_engine_gas_power_fuelmix.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="25540" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="25540" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -356,9 +364,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -656,6 +661,10 @@
   <si>
     <t>industry_chp_engine_gas_power_fuelmix.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -667,7 +676,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -834,11 +843,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1495,43 +1499,43 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1540,12 +1544,12 @@
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1630,7 +1634,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1648,7 +1652,7 @@
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1685,7 +1689,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1698,9 +1702,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1708,31 +1712,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,80 +1997,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2336,7 +2275,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2773,54 +2712,54 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2829,29 +2768,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="105" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="106"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="107"/>
       <c r="C10" s="108"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="107" t="s">
         <v>91</v>
@@ -2860,33 +2799,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="107"/>
       <c r="C12" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="107"/>
       <c r="C13" s="110" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="107"/>
       <c r="C14" s="108" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="107"/>
       <c r="C15" s="108"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="107" t="s">
         <v>96</v>
@@ -2895,49 +2834,49 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="107"/>
       <c r="C17" s="112" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="107"/>
       <c r="C18" s="113" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="107"/>
       <c r="C19" s="114" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="115"/>
       <c r="C20" s="116" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="115"/>
       <c r="C21" s="117" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="115"/>
       <c r="C22" s="118" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="115"/>
       <c r="C23" s="119" t="s">
         <v>104</v>
@@ -2946,49 +2885,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="161" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C2" s="162"/>
       <c r="D2" s="162"/>
@@ -2996,7 +2930,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="164"/>
       <c r="C3" s="165"/>
       <c r="D3" s="165"/>
@@ -3004,7 +2938,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="167"/>
       <c r="C4" s="168"/>
       <c r="D4" s="168"/>
@@ -3012,10 +2946,10 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3026,7 +2960,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="120"/>
       <c r="C7" s="15" t="s">
         <v>34</v>
@@ -3047,7 +2981,7 @@
       </c>
       <c r="J7" s="127"/>
     </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -3058,10 +2992,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3071,10 +3005,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -3087,11 +3021,11 @@
       <c r="G10" s="32"/>
       <c r="H10" s="27"/>
       <c r="I10" s="150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="32" t="s">
         <v>65</v>
@@ -3110,7 +3044,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="32" t="s">
         <v>36</v>
@@ -3130,7 +3064,7 @@
       <c r="J12" s="128"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -3150,7 +3084,7 @@
       <c r="J13" s="128"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>39</v>
@@ -3170,7 +3104,7 @@
       <c r="J14" s="128"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>11</v>
@@ -3190,7 +3124,7 @@
       <c r="J15" s="128"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>42</v>
@@ -3210,7 +3144,7 @@
       <c r="J16" s="128"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3230,7 +3164,7 @@
       <c r="J17" s="128"/>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="32" t="s">
         <v>44</v>
@@ -3252,7 +3186,7 @@
       </c>
       <c r="J18" s="128"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="32" t="s">
         <v>45</v>
@@ -3273,7 +3207,7 @@
       </c>
       <c r="J19" s="128"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
       <c r="C20" s="69" t="s">
         <v>76</v>
@@ -3294,7 +3228,7 @@
       </c>
       <c r="J20" s="128"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="69" t="s">
         <v>77</v>
@@ -3315,7 +3249,7 @@
       </c>
       <c r="J21" s="128"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="69" t="s">
         <v>78</v>
@@ -3336,7 +3270,7 @@
       </c>
       <c r="J22" s="128"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
       <c r="C23" s="69" t="s">
         <v>79</v>
@@ -3357,7 +3291,7 @@
       </c>
       <c r="J23" s="128"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="69" t="s">
         <v>80</v>
@@ -3378,7 +3312,7 @@
       </c>
       <c r="J24" s="128"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
       <c r="C25" s="92"/>
       <c r="D25" s="123"/>
@@ -3389,10 +3323,10 @@
       <c r="I25" s="31"/>
       <c r="J25" s="128"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="123"/>
       <c r="E26" s="124"/>
@@ -3402,7 +3336,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="128"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
         <v>46</v>
@@ -3420,11 +3354,11 @@
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" s="128"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
         <v>47</v>
@@ -3445,7 +3379,7 @@
       </c>
       <c r="J28" s="128"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
       <c r="C29" s="32" t="s">
         <v>13</v>
@@ -3466,7 +3400,7 @@
       </c>
       <c r="J29" s="128"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="32" t="s">
         <v>48</v>
@@ -3487,7 +3421,7 @@
       </c>
       <c r="J30" s="128"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="32" t="s">
         <v>49</v>
@@ -3504,11 +3438,11 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" s="128"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
       <c r="C32" s="32" t="s">
         <v>50</v>
@@ -3526,11 +3460,11 @@
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="128"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="32" t="s">
         <v>51</v>
@@ -3551,7 +3485,7 @@
       </c>
       <c r="J33" s="128"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="36"/>
       <c r="C34" s="32" t="s">
         <v>54</v>
@@ -3572,7 +3506,7 @@
       </c>
       <c r="J34" s="128"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="36"/>
       <c r="C35" s="32" t="s">
         <v>41</v>
@@ -3591,7 +3525,7 @@
       </c>
       <c r="J35" s="128"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="36"/>
       <c r="C36" s="32"/>
       <c r="D36" s="19"/>
@@ -3602,7 +3536,7 @@
       <c r="I36" s="31"/>
       <c r="J36" s="128"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="36"/>
       <c r="C37" s="14" t="s">
         <v>8</v>
@@ -3615,7 +3549,7 @@
       <c r="I37" s="31"/>
       <c r="J37" s="128"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="32" t="s">
         <v>40</v>
@@ -3633,11 +3567,11 @@
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="128"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="36"/>
       <c r="C39" s="32" t="s">
         <v>52</v>
@@ -3655,11 +3589,11 @@
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J39" s="128"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="36"/>
       <c r="C40" s="32" t="s">
         <v>53</v>
@@ -3677,11 +3611,11 @@
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="128"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
       <c r="C41" s="32" t="s">
         <v>38</v>
@@ -3700,7 +3634,7 @@
       </c>
       <c r="J41" s="128"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36"/>
       <c r="C42" s="44" t="s">
         <v>66</v>
@@ -3717,7 +3651,7 @@
       </c>
       <c r="J42" s="128"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
       <c r="C43" s="44" t="s">
         <v>67</v>
@@ -3734,7 +3668,7 @@
       </c>
       <c r="J43" s="128"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="36"/>
       <c r="C44" s="44" t="s">
         <v>69</v>
@@ -3751,7 +3685,7 @@
       </c>
       <c r="J44" s="128"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="36"/>
       <c r="C45" s="44" t="s">
         <v>70</v>
@@ -3768,7 +3702,7 @@
       </c>
       <c r="J45" s="128"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="36"/>
       <c r="C46" s="44" t="s">
         <v>68</v>
@@ -3785,7 +3719,7 @@
       </c>
       <c r="J46" s="128"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -3802,43 +3736,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3853,31 +3750,30 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="72" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="73" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="73" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="73" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="73" customWidth="1"/>
-    <col min="13" max="13" width="2.75" style="73" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="73" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="72" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="73" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="73" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="73" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="73" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="73" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="73" customWidth="1"/>
     <col min="15" max="15" width="3" style="73" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="73" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="73" customWidth="1"/>
     <col min="17" max="17" width="3" style="73" customWidth="1"/>
-    <col min="18" max="18" width="69.625" style="72" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="72"/>
+    <col min="18" max="18" width="69.5703125" style="72" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="74"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -3896,10 +3792,10 @@
       <c r="Q2" s="76"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="2:18" s="21" customFormat="1">
+    <row r="3" spans="2:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3911,7 +3807,7 @@
       </c>
       <c r="H3" s="135"/>
       <c r="I3" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="66" t="s">
@@ -3920,18 +3816,18 @@
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O3" s="65"/>
       <c r="P3" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="65"/>
       <c r="R3" s="135" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="77"/>
       <c r="C4" s="78"/>
       <c r="D4" s="78"/>
@@ -3950,10 +3846,10 @@
       <c r="Q4" s="133"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="77"/>
       <c r="C5" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3971,7 +3867,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="69"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="77"/>
       <c r="C6" s="80" t="s">
         <v>31</v>
@@ -4009,7 +3905,7 @@
       <c r="Q6" s="79"/>
       <c r="R6" s="151"/>
     </row>
-    <row r="7" spans="2:18" ht="16" thickBot="1">
+    <row r="7" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="77"/>
       <c r="C7" s="80" t="s">
         <v>74</v>
@@ -4046,7 +3942,7 @@
       <c r="Q7" s="85"/>
       <c r="R7" s="151"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="77"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
@@ -4065,7 +3961,7 @@
       <c r="Q8" s="89"/>
       <c r="R8" s="152"/>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="77"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -4086,10 +3982,10 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="153"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="77"/>
       <c r="C10" s="136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
@@ -4118,7 +4014,7 @@
       <c r="Q10" s="89"/>
       <c r="R10" s="153"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="77"/>
       <c r="C11" s="93" t="s">
         <v>1</v>
@@ -4147,7 +4043,7 @@
       <c r="Q11" s="90"/>
       <c r="R11" s="153"/>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="77"/>
       <c r="C12" s="95" t="s">
         <v>6</v>
@@ -4176,7 +4072,7 @@
       <c r="Q12" s="90"/>
       <c r="R12" s="151"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="77"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4195,10 +4091,10 @@
       <c r="Q13" s="90"/>
       <c r="R13" s="151"/>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="77"/>
       <c r="C14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4216,10 +4112,10 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="151"/>
     </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4242,7 +4138,7 @@
       <c r="Q15" s="89"/>
       <c r="R15" s="151"/>
     </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="77"/>
       <c r="C16" s="97" t="s">
         <v>9</v>
@@ -4250,7 +4146,7 @@
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
       <c r="F16" s="130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="94">
         <f>N16</f>
@@ -4270,13 +4166,13 @@
       <c r="P16" s="89"/>
       <c r="Q16" s="89"/>
       <c r="R16" s="151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="77"/>
       <c r="C17" s="141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4302,10 +4198,10 @@
       <c r="Q17" s="89"/>
       <c r="R17" s="151"/>
     </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="77"/>
       <c r="C18" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -4328,15 +4224,15 @@
       <c r="Q18" s="89"/>
       <c r="R18" s="151"/>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="77"/>
       <c r="C19" s="129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="98">
         <f>N19</f>
@@ -4357,10 +4253,10 @@
       <c r="Q19" s="89"/>
       <c r="R19" s="151"/>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="77"/>
       <c r="C20" s="129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -4383,10 +4279,10 @@
       <c r="Q20" s="89"/>
       <c r="R20" s="151"/>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="77"/>
       <c r="C21" s="141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
@@ -4409,15 +4305,15 @@
       <c r="Q21" s="89"/>
       <c r="R21" s="151"/>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="77"/>
       <c r="C22" s="129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
       <c r="F22" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="101">
         <f>N22</f>
@@ -4438,10 +4334,10 @@
       <c r="Q22" s="89"/>
       <c r="R22" s="153"/>
     </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="77"/>
       <c r="C23" s="134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -4463,15 +4359,15 @@
       <c r="Q23" s="86"/>
       <c r="R23" s="151"/>
     </row>
-    <row r="24" spans="2:18" ht="16" thickBot="1">
+    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="77"/>
       <c r="C24" s="142" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
       <c r="F24" s="134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="102">
         <f>G23*G6</f>
@@ -4492,11 +4388,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4511,22 +4402,22 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
     <col min="10" max="10" width="32" style="46" customWidth="1"/>
-    <col min="11" max="11" width="75.375" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="11" max="11" width="75.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4538,7 +4429,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4552,7 +4443,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4564,7 +4455,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>32</v>
@@ -4580,19 +4471,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4604,12 +4495,12 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="64"/>
       <c r="D7" s="58"/>
       <c r="E7" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>72</v>
@@ -4618,17 +4509,17 @@
         <v>86</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="59" t="s">
         <v>1</v>
@@ -4642,7 +4533,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="68"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="58" t="s">
         <v>75</v>
@@ -4656,7 +4547,7 @@
       <c r="J9" s="54"/>
       <c r="K9" s="68"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -4668,32 +4559,32 @@
       <c r="J10" s="54"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="58"/>
       <c r="D11" s="63"/>
       <c r="E11" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
       <c r="C12" s="63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="58"/>
@@ -4704,7 +4595,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
       <c r="C13" s="58" t="s">
         <v>88</v>
@@ -4718,10 +4609,10 @@
       <c r="J13" s="61"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="58"/>
@@ -4732,7 +4623,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="63" t="s">
         <v>61</v>
@@ -4746,7 +4637,7 @@
       <c r="J15" s="61"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="50"/>
       <c r="C16" s="63" t="s">
         <v>73</v>
@@ -4760,7 +4651,7 @@
       <c r="J16" s="61"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="50"/>
       <c r="C17" s="58"/>
       <c r="D17" s="63"/>
@@ -4772,12 +4663,12 @@
       <c r="J17" s="61"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="50"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>72</v>
@@ -4785,14 +4676,14 @@
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" s="61"/>
       <c r="K18" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
       <c r="C19" s="63" t="s">
         <v>73</v>
@@ -4805,10 +4696,10 @@
       <c r="J19" s="61"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="50"/>
       <c r="C20" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="63"/>
       <c r="F20" s="60"/>
@@ -4818,7 +4709,7 @@
       <c r="J20" s="61"/>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="50"/>
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
@@ -4830,7 +4721,7 @@
       <c r="J21" s="61"/>
       <c r="K21" s="58"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
@@ -4843,14 +4734,14 @@
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" s="61"/>
       <c r="K22" s="144" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="50"/>
       <c r="C23" s="63" t="s">
         <v>73</v>
@@ -4864,10 +4755,10 @@
       <c r="J23" s="54"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="50"/>
       <c r="C24" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -4887,11 +4778,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G11:H11" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4903,16 +4789,16 @@
       <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="149" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="149" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="149" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="149"/>
+    <col min="1" max="1" width="5.5703125" style="149" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="149" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="149" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="154"/>
       <c r="C2" s="155"/>
       <c r="D2" s="155"/>
@@ -4928,13 +4814,13 @@
       <c r="N2" s="155"/>
       <c r="O2" s="156"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="120"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4948,7 +4834,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="160"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="157"/>
       <c r="C4" s="158"/>
       <c r="D4" s="158"/>
@@ -4964,10 +4850,10 @@
       <c r="N4" s="158"/>
       <c r="O4" s="159"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="157"/>
       <c r="C5" s="158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -4982,10 +4868,10 @@
       <c r="N5" s="158"/>
       <c r="O5" s="159"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="157"/>
       <c r="C6" s="158" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -5000,7 +4886,7 @@
       <c r="N6" s="158"/>
       <c r="O6" s="159"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="157"/>
       <c r="C7" s="158"/>
       <c r="D7" s="158"/>
@@ -5016,7 +4902,7 @@
       <c r="N7" s="158"/>
       <c r="O7" s="159"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="157"/>
       <c r="C8" s="158"/>
       <c r="D8" s="158"/>
@@ -5032,7 +4918,7 @@
       <c r="N8" s="158"/>
       <c r="O8" s="159"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="157"/>
       <c r="C9" s="158"/>
       <c r="D9" s="158"/>
@@ -5048,7 +4934,7 @@
       <c r="N9" s="158"/>
       <c r="O9" s="159"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="157"/>
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
@@ -5064,7 +4950,7 @@
       <c r="N10" s="158"/>
       <c r="O10" s="159"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="157"/>
       <c r="C11" s="158"/>
       <c r="D11" s="158"/>
@@ -5080,7 +4966,7 @@
       <c r="N11" s="158"/>
       <c r="O11" s="159"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="157"/>
       <c r="C12" s="158"/>
       <c r="D12" s="158"/>
@@ -5096,14 +4982,14 @@
       <c r="N12" s="158"/>
       <c r="O12" s="159"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="157"/>
       <c r="C13" s="158"/>
       <c r="D13" s="158">
         <v>1000</v>
       </c>
       <c r="E13" s="158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="158"/>
       <c r="G13" s="158"/>
@@ -5116,14 +5002,14 @@
       <c r="N13" s="158"/>
       <c r="O13" s="159"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="157"/>
       <c r="C14" s="158"/>
       <c r="D14" s="158">
         <v>600</v>
       </c>
       <c r="E14" s="158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="158"/>
       <c r="G14" s="158"/>
@@ -5136,7 +5022,7 @@
       <c r="N14" s="158"/>
       <c r="O14" s="159"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="157"/>
       <c r="C15" s="158"/>
       <c r="D15" s="158">
@@ -5156,7 +5042,7 @@
       <c r="N15" s="158"/>
       <c r="O15" s="159"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="157"/>
       <c r="C16" s="158"/>
       <c r="D16" s="158"/>
@@ -5172,7 +5058,7 @@
       <c r="N16" s="158"/>
       <c r="O16" s="159"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="157"/>
       <c r="C17" s="158"/>
       <c r="D17" s="158"/>
@@ -5188,7 +5074,7 @@
       <c r="N17" s="158"/>
       <c r="O17" s="159"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="157"/>
       <c r="C18" s="158"/>
       <c r="D18" s="158"/>
@@ -5204,7 +5090,7 @@
       <c r="N18" s="158"/>
       <c r="O18" s="159"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="157"/>
       <c r="C19" s="158"/>
       <c r="D19" s="158"/>
@@ -5220,7 +5106,7 @@
       <c r="N19" s="158"/>
       <c r="O19" s="159"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="157"/>
       <c r="C20" s="158"/>
       <c r="D20" s="158"/>
@@ -5236,10 +5122,10 @@
       <c r="N20" s="158"/>
       <c r="O20" s="159"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="157"/>
       <c r="C21" s="158" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="158"/>
       <c r="E21" s="158"/>
@@ -5254,7 +5140,7 @@
       <c r="N21" s="158"/>
       <c r="O21" s="159"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="157"/>
       <c r="C22" s="158"/>
       <c r="D22" s="158"/>
@@ -5270,7 +5156,7 @@
       <c r="N22" s="158"/>
       <c r="O22" s="159"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="157"/>
       <c r="C23" s="158"/>
       <c r="D23" s="158"/>
@@ -5286,7 +5172,7 @@
       <c r="N23" s="158"/>
       <c r="O23" s="159"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="157"/>
       <c r="C24" s="158"/>
       <c r="D24" s="158"/>
@@ -5302,7 +5188,7 @@
       <c r="N24" s="158"/>
       <c r="O24" s="159"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="157"/>
       <c r="C25" s="158"/>
       <c r="D25" s="158"/>
@@ -5318,7 +5204,7 @@
       <c r="N25" s="158"/>
       <c r="O25" s="159"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="157"/>
       <c r="C26" s="158"/>
       <c r="D26" s="158"/>
@@ -5334,7 +5220,7 @@
       <c r="N26" s="158"/>
       <c r="O26" s="159"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="157"/>
       <c r="C27" s="158"/>
       <c r="D27" s="158"/>
@@ -5350,7 +5236,7 @@
       <c r="N27" s="158"/>
       <c r="O27" s="159"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="157"/>
       <c r="C28" s="158"/>
       <c r="D28" s="158"/>
@@ -5366,7 +5252,7 @@
       <c r="N28" s="158"/>
       <c r="O28" s="159"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="157"/>
       <c r="C29" s="158"/>
       <c r="D29" s="158"/>
@@ -5382,7 +5268,7 @@
       <c r="N29" s="158"/>
       <c r="O29" s="159"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="157"/>
       <c r="C30" s="158"/>
       <c r="D30" s="158"/>
@@ -5398,7 +5284,7 @@
       <c r="N30" s="158"/>
       <c r="O30" s="159"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="157"/>
       <c r="C31" s="158"/>
       <c r="D31" s="158"/>
@@ -5414,7 +5300,7 @@
       <c r="N31" s="158"/>
       <c r="O31" s="159"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="157"/>
       <c r="C32" s="158"/>
       <c r="D32" s="158"/>
@@ -5430,16 +5316,16 @@
       <c r="N32" s="158"/>
       <c r="O32" s="159"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="157"/>
       <c r="C33" s="158" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="158">
         <v>48000</v>
       </c>
       <c r="E33" s="158" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="158"/>
       <c r="G33" s="158"/>
@@ -5452,16 +5338,16 @@
       <c r="N33" s="158"/>
       <c r="O33" s="159"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="157"/>
       <c r="C34" s="158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="158">
         <v>0</v>
       </c>
       <c r="E34" s="158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="158"/>
       <c r="G34" s="158"/>
@@ -5474,10 +5360,10 @@
       <c r="N34" s="158"/>
       <c r="O34" s="159"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="157"/>
       <c r="C35" s="158" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="158">
         <v>8</v>
@@ -5496,7 +5382,7 @@
       <c r="N35" s="158"/>
       <c r="O35" s="159"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="157"/>
       <c r="C36" s="158"/>
       <c r="D36" s="158"/>
@@ -5512,7 +5398,7 @@
       <c r="N36" s="158"/>
       <c r="O36" s="159"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="157"/>
       <c r="C37" s="158"/>
       <c r="D37" s="158"/>
@@ -5528,7 +5414,7 @@
       <c r="N37" s="158"/>
       <c r="O37" s="159"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="157"/>
       <c r="C38" s="158"/>
       <c r="D38" s="158"/>
@@ -5544,7 +5430,7 @@
       <c r="N38" s="158"/>
       <c r="O38" s="159"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="157"/>
       <c r="C39" s="158"/>
       <c r="D39" s="158"/>
@@ -5560,7 +5446,7 @@
       <c r="N39" s="158"/>
       <c r="O39" s="159"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="157"/>
       <c r="C40" s="158"/>
       <c r="D40" s="158"/>
@@ -5576,7 +5462,7 @@
       <c r="N40" s="158"/>
       <c r="O40" s="159"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="157"/>
       <c r="C41" s="158"/>
       <c r="D41" s="158"/>
@@ -5592,7 +5478,7 @@
       <c r="N41" s="158"/>
       <c r="O41" s="159"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="157"/>
       <c r="C42" s="158"/>
       <c r="D42" s="158"/>
@@ -5608,7 +5494,7 @@
       <c r="N42" s="158"/>
       <c r="O42" s="159"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="157"/>
       <c r="C43" s="158"/>
       <c r="D43" s="158"/>
@@ -5624,7 +5510,7 @@
       <c r="N43" s="158"/>
       <c r="O43" s="159"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="157"/>
       <c r="C44" s="158"/>
       <c r="D44" s="158"/>
@@ -5640,7 +5526,7 @@
       <c r="N44" s="158"/>
       <c r="O44" s="159"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="157"/>
       <c r="C45" s="158"/>
       <c r="D45" s="158"/>
@@ -5656,7 +5542,7 @@
       <c r="N45" s="158"/>
       <c r="O45" s="159"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="157"/>
       <c r="C46" s="158"/>
       <c r="D46" s="158"/>
@@ -5672,7 +5558,7 @@
       <c r="N46" s="158"/>
       <c r="O46" s="159"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="157"/>
       <c r="C47" s="158"/>
       <c r="D47" s="158"/>
@@ -5688,10 +5574,10 @@
       <c r="N47" s="158"/>
       <c r="O47" s="159"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="157"/>
       <c r="C48" s="158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="158"/>
       <c r="E48" s="158"/>
@@ -5706,10 +5592,10 @@
       <c r="N48" s="158"/>
       <c r="O48" s="159"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="157"/>
       <c r="C49" s="158" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="158"/>
       <c r="E49" s="158"/>
@@ -5724,7 +5610,7 @@
       <c r="N49" s="158"/>
       <c r="O49" s="159"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="157"/>
       <c r="C50" s="158"/>
       <c r="D50" s="158"/>
@@ -5740,7 +5626,7 @@
       <c r="N50" s="158"/>
       <c r="O50" s="159"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="157"/>
       <c r="C51" s="158"/>
       <c r="D51" s="158"/>
@@ -5756,14 +5642,14 @@
       <c r="N51" s="158"/>
       <c r="O51" s="159"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="157"/>
       <c r="C52" s="158"/>
       <c r="D52" s="158">
         <v>14</v>
       </c>
       <c r="E52" s="158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="158"/>
       <c r="G52" s="158"/>
@@ -5776,14 +5662,14 @@
       <c r="N52" s="158"/>
       <c r="O52" s="159"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="157"/>
       <c r="C53" s="158"/>
       <c r="D53" s="158">
         <v>20</v>
       </c>
       <c r="E53" s="158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="158"/>
       <c r="G53" s="158"/>
@@ -5796,7 +5682,7 @@
       <c r="N53" s="158"/>
       <c r="O53" s="159"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="157"/>
       <c r="C54" s="158"/>
       <c r="D54" s="158"/>
@@ -5812,7 +5698,7 @@
       <c r="N54" s="158"/>
       <c r="O54" s="159"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="157"/>
       <c r="C55" s="158"/>
       <c r="D55" s="158"/>
@@ -5828,7 +5714,7 @@
       <c r="N55" s="158"/>
       <c r="O55" s="159"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="157"/>
       <c r="C56" s="158"/>
       <c r="D56" s="158"/>
@@ -5844,7 +5730,7 @@
       <c r="N56" s="158"/>
       <c r="O56" s="159"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="157"/>
       <c r="C57" s="158"/>
       <c r="D57" s="158"/>
@@ -5860,7 +5746,7 @@
       <c r="N57" s="158"/>
       <c r="O57" s="159"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="157"/>
       <c r="C58" s="158"/>
       <c r="D58" s="158"/>
@@ -5876,7 +5762,7 @@
       <c r="N58" s="158"/>
       <c r="O58" s="159"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="157"/>
       <c r="C59" s="158"/>
       <c r="D59" s="158"/>
@@ -5892,7 +5778,7 @@
       <c r="N59" s="158"/>
       <c r="O59" s="159"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="157"/>
       <c r="C60" s="158"/>
       <c r="D60" s="158"/>
@@ -5908,7 +5794,7 @@
       <c r="N60" s="158"/>
       <c r="O60" s="159"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="157"/>
       <c r="C61" s="158"/>
       <c r="D61" s="158"/>
@@ -5924,7 +5810,7 @@
       <c r="N61" s="158"/>
       <c r="O61" s="159"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="157"/>
       <c r="C62" s="158"/>
       <c r="D62" s="158"/>
@@ -5940,7 +5826,7 @@
       <c r="N62" s="158"/>
       <c r="O62" s="159"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="157"/>
       <c r="C63" s="158"/>
       <c r="D63" s="158"/>
@@ -5956,7 +5842,7 @@
       <c r="N63" s="158"/>
       <c r="O63" s="159"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="157"/>
       <c r="C64" s="158"/>
       <c r="D64" s="158"/>
@@ -5972,7 +5858,7 @@
       <c r="N64" s="158"/>
       <c r="O64" s="159"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="157"/>
       <c r="C65" s="158"/>
       <c r="D65" s="158"/>
@@ -5988,7 +5874,7 @@
       <c r="N65" s="158"/>
       <c r="O65" s="159"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="157"/>
       <c r="C66" s="158"/>
       <c r="D66" s="158"/>
@@ -6004,7 +5890,7 @@
       <c r="N66" s="158"/>
       <c r="O66" s="159"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="157"/>
       <c r="C67" s="158"/>
       <c r="D67" s="158"/>
@@ -6020,7 +5906,7 @@
       <c r="N67" s="158"/>
       <c r="O67" s="159"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="157"/>
       <c r="C68" s="158" t="s">
         <v>87</v>
@@ -6038,7 +5924,7 @@
       <c r="N68" s="158"/>
       <c r="O68" s="159"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="157"/>
       <c r="C69" s="158"/>
       <c r="D69" s="158"/>
@@ -6054,7 +5940,7 @@
       <c r="N69" s="158"/>
       <c r="O69" s="159"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="157"/>
       <c r="C70" s="158"/>
       <c r="D70" s="158"/>
@@ -6070,14 +5956,14 @@
       <c r="N70" s="158"/>
       <c r="O70" s="159"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="157"/>
       <c r="C71" s="158"/>
       <c r="D71" s="158">
         <v>6700</v>
       </c>
       <c r="E71" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F71" s="158"/>
       <c r="G71" s="158"/>
@@ -6090,14 +5976,14 @@
       <c r="N71" s="158"/>
       <c r="O71" s="159"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="157"/>
       <c r="C72" s="158"/>
       <c r="D72" s="158">
         <v>1800</v>
       </c>
       <c r="E72" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" s="158"/>
       <c r="G72" s="158"/>
@@ -6110,7 +5996,7 @@
       <c r="N72" s="158"/>
       <c r="O72" s="159"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="157"/>
       <c r="C73" s="158"/>
       <c r="D73" s="158"/>
@@ -6126,7 +6012,7 @@
       <c r="N73" s="158"/>
       <c r="O73" s="159"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="157"/>
       <c r="C74" s="158"/>
       <c r="D74" s="158"/>
@@ -6142,7 +6028,7 @@
       <c r="N74" s="158"/>
       <c r="O74" s="159"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="157"/>
       <c r="C75" s="158"/>
       <c r="D75" s="158"/>
@@ -6158,7 +6044,7 @@
       <c r="N75" s="158"/>
       <c r="O75" s="159"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="157"/>
       <c r="C76" s="158"/>
       <c r="D76" s="158"/>
@@ -6174,7 +6060,7 @@
       <c r="N76" s="158"/>
       <c r="O76" s="159"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="157"/>
       <c r="C77" s="158"/>
       <c r="D77" s="158"/>
@@ -6190,7 +6076,7 @@
       <c r="N77" s="158"/>
       <c r="O77" s="159"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="157"/>
       <c r="C78" s="158"/>
       <c r="D78" s="158"/>
@@ -6206,7 +6092,7 @@
       <c r="N78" s="158"/>
       <c r="O78" s="159"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="157"/>
       <c r="C79" s="158"/>
       <c r="D79" s="158"/>
@@ -6222,7 +6108,7 @@
       <c r="N79" s="158"/>
       <c r="O79" s="159"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="157"/>
       <c r="C80" s="158"/>
       <c r="D80" s="158"/>
@@ -6238,7 +6124,7 @@
       <c r="N80" s="158"/>
       <c r="O80" s="159"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="157"/>
       <c r="C81" s="158"/>
       <c r="D81" s="158"/>
@@ -6254,7 +6140,7 @@
       <c r="N81" s="158"/>
       <c r="O81" s="159"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="157"/>
       <c r="C82" s="158"/>
       <c r="D82" s="158"/>
@@ -6270,7 +6156,7 @@
       <c r="N82" s="158"/>
       <c r="O82" s="159"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="157"/>
       <c r="C83" s="158"/>
       <c r="D83" s="158"/>
@@ -6286,7 +6172,7 @@
       <c r="N83" s="158"/>
       <c r="O83" s="159"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="157"/>
       <c r="C84" s="158"/>
       <c r="D84" s="158"/>
@@ -6302,7 +6188,7 @@
       <c r="N84" s="158"/>
       <c r="O84" s="159"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="157"/>
       <c r="C85" s="158"/>
       <c r="D85" s="158"/>
@@ -6318,7 +6204,7 @@
       <c r="N85" s="158"/>
       <c r="O85" s="159"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="157"/>
       <c r="C86" s="158"/>
       <c r="D86" s="158"/>
@@ -6334,14 +6220,14 @@
       <c r="N86" s="158"/>
       <c r="O86" s="159"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="157"/>
       <c r="C87" s="158"/>
       <c r="D87" s="158">
         <v>889</v>
       </c>
       <c r="E87" s="158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F87" s="158"/>
       <c r="G87" s="158"/>
@@ -6354,7 +6240,7 @@
       <c r="N87" s="158"/>
       <c r="O87" s="159"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="157"/>
       <c r="C88" s="158"/>
       <c r="D88" s="158">
@@ -6374,7 +6260,7 @@
       <c r="N88" s="158"/>
       <c r="O88" s="159"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="157"/>
       <c r="C89" s="158"/>
       <c r="D89" s="158"/>
@@ -6390,14 +6276,14 @@
       <c r="N89" s="158"/>
       <c r="O89" s="159"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="157"/>
       <c r="C90" s="158"/>
       <c r="D90" s="158">
         <v>1189</v>
       </c>
       <c r="E90" s="158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F90" s="158"/>
       <c r="G90" s="158"/>
@@ -6410,7 +6296,7 @@
       <c r="N90" s="158"/>
       <c r="O90" s="159"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="157"/>
       <c r="C91" s="158"/>
       <c r="D91" s="158">
@@ -6430,7 +6316,7 @@
       <c r="N91" s="158"/>
       <c r="O91" s="159"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="157"/>
       <c r="C92" s="158"/>
       <c r="D92" s="158"/>
@@ -6446,7 +6332,7 @@
       <c r="N92" s="158"/>
       <c r="O92" s="159"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="157"/>
       <c r="C93" s="158"/>
       <c r="D93" s="158"/>
@@ -6462,7 +6348,7 @@
       <c r="N93" s="158"/>
       <c r="O93" s="159"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="157"/>
       <c r="C94" s="158"/>
       <c r="D94" s="158"/>
@@ -6478,7 +6364,7 @@
       <c r="N94" s="158"/>
       <c r="O94" s="159"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="157"/>
       <c r="C95" s="158"/>
       <c r="D95" s="158"/>
@@ -6494,7 +6380,7 @@
       <c r="N95" s="158"/>
       <c r="O95" s="159"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="157"/>
       <c r="C96" s="158"/>
       <c r="D96" s="158"/>
@@ -6510,7 +6396,7 @@
       <c r="N96" s="158"/>
       <c r="O96" s="159"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="157"/>
       <c r="C97" s="158"/>
       <c r="D97" s="158"/>
@@ -6526,7 +6412,7 @@
       <c r="N97" s="158"/>
       <c r="O97" s="159"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="157"/>
       <c r="C98" s="158"/>
       <c r="D98" s="158"/>
@@ -6542,10 +6428,10 @@
       <c r="N98" s="158"/>
       <c r="O98" s="159"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="157"/>
       <c r="C99" s="158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D99" s="158"/>
       <c r="E99" s="158"/>
@@ -6560,7 +6446,7 @@
       <c r="N99" s="158"/>
       <c r="O99" s="159"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="157"/>
       <c r="C100" s="158"/>
       <c r="D100" s="158"/>
@@ -6576,7 +6462,7 @@
       <c r="N100" s="158"/>
       <c r="O100" s="159"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="157"/>
       <c r="C101" s="158"/>
       <c r="D101" s="158"/>
@@ -6592,7 +6478,7 @@
       <c r="N101" s="158"/>
       <c r="O101" s="159"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="157"/>
       <c r="C102" s="158"/>
       <c r="D102" s="158"/>
@@ -6608,7 +6494,7 @@
       <c r="N102" s="158"/>
       <c r="O102" s="159"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="157"/>
       <c r="C103" s="158"/>
       <c r="D103" s="158"/>
@@ -6624,7 +6510,7 @@
       <c r="N103" s="158"/>
       <c r="O103" s="159"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="157"/>
       <c r="C104" s="158"/>
       <c r="D104" s="158"/>
@@ -6640,7 +6526,7 @@
       <c r="N104" s="158"/>
       <c r="O104" s="159"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="157"/>
       <c r="C105" s="158"/>
       <c r="D105" s="158"/>
@@ -6656,14 +6542,14 @@
       <c r="N105" s="158"/>
       <c r="O105" s="159"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="157"/>
       <c r="C106" s="158"/>
       <c r="D106" s="158">
         <v>1000</v>
       </c>
       <c r="E106" s="158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F106" s="158"/>
       <c r="G106" s="158"/>
@@ -6676,7 +6562,7 @@
       <c r="N106" s="158"/>
       <c r="O106" s="159"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="157"/>
       <c r="C107" s="158"/>
       <c r="D107" s="158"/>
@@ -6692,7 +6578,7 @@
       <c r="N107" s="158"/>
       <c r="O107" s="159"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="157"/>
       <c r="C108" s="158"/>
       <c r="D108" s="158"/>
@@ -6708,7 +6594,7 @@
       <c r="N108" s="158"/>
       <c r="O108" s="159"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="157"/>
       <c r="C109" s="158"/>
       <c r="D109" s="158"/>
@@ -6724,7 +6610,7 @@
       <c r="N109" s="158"/>
       <c r="O109" s="159"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="157"/>
       <c r="C110" s="158"/>
       <c r="D110" s="158">
@@ -6744,7 +6630,7 @@
       <c r="N110" s="158"/>
       <c r="O110" s="159"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="157"/>
       <c r="C111" s="158"/>
       <c r="D111" s="158"/>
@@ -6760,7 +6646,7 @@
       <c r="N111" s="158"/>
       <c r="O111" s="159"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="157"/>
       <c r="C112" s="158"/>
       <c r="D112" s="158"/>
@@ -6776,7 +6662,7 @@
       <c r="N112" s="158"/>
       <c r="O112" s="159"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="157"/>
       <c r="C113" s="158"/>
       <c r="D113" s="158"/>
@@ -6792,7 +6678,7 @@
       <c r="N113" s="158"/>
       <c r="O113" s="159"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="157"/>
       <c r="C114" s="158"/>
       <c r="D114" s="158"/>
@@ -6808,7 +6694,7 @@
       <c r="N114" s="158"/>
       <c r="O114" s="159"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="157"/>
       <c r="C115" s="158"/>
       <c r="D115" s="158"/>
@@ -6824,7 +6710,7 @@
       <c r="N115" s="158"/>
       <c r="O115" s="159"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="157"/>
       <c r="C116" s="158"/>
       <c r="D116" s="158"/>
@@ -6840,7 +6726,7 @@
       <c r="N116" s="158"/>
       <c r="O116" s="159"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="157"/>
       <c r="C117" s="158"/>
       <c r="D117" s="158"/>
@@ -6856,7 +6742,7 @@
       <c r="N117" s="158"/>
       <c r="O117" s="159"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="157"/>
       <c r="C118" s="158"/>
       <c r="D118" s="158"/>
@@ -6872,7 +6758,7 @@
       <c r="N118" s="158"/>
       <c r="O118" s="159"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="157"/>
       <c r="C119" s="158"/>
       <c r="D119" s="158"/>
@@ -6888,7 +6774,7 @@
       <c r="N119" s="158"/>
       <c r="O119" s="159"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="157"/>
       <c r="C120" s="158"/>
       <c r="D120" s="158"/>
@@ -6904,14 +6790,14 @@
       <c r="N120" s="158"/>
       <c r="O120" s="159"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="157"/>
       <c r="C121" s="158"/>
       <c r="D121" s="158">
         <v>4660</v>
       </c>
       <c r="E121" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F121" s="158"/>
       <c r="G121" s="158"/>
@@ -6924,14 +6810,14 @@
       <c r="N121" s="158"/>
       <c r="O121" s="159"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="157"/>
       <c r="C122" s="158"/>
       <c r="D122" s="158">
         <v>1810</v>
       </c>
       <c r="E122" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F122" s="158"/>
       <c r="G122" s="158"/>
@@ -6944,7 +6830,7 @@
       <c r="N122" s="158"/>
       <c r="O122" s="159"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="157"/>
       <c r="C123" s="158"/>
       <c r="D123" s="158"/>
@@ -6960,7 +6846,7 @@
       <c r="N123" s="158"/>
       <c r="O123" s="159"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="157"/>
       <c r="C124" s="158"/>
       <c r="D124" s="158"/>
@@ -6976,7 +6862,7 @@
       <c r="N124" s="158"/>
       <c r="O124" s="159"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="157"/>
       <c r="C125" s="158"/>
       <c r="D125" s="158"/>
@@ -6992,7 +6878,7 @@
       <c r="N125" s="158"/>
       <c r="O125" s="159"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="157"/>
       <c r="C126" s="158"/>
       <c r="D126" s="158"/>
@@ -7008,7 +6894,7 @@
       <c r="N126" s="158"/>
       <c r="O126" s="159"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="157"/>
       <c r="C127" s="158"/>
       <c r="D127" s="158"/>
@@ -7024,7 +6910,7 @@
       <c r="N127" s="158"/>
       <c r="O127" s="159"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="157"/>
       <c r="C128" s="158"/>
       <c r="D128" s="158"/>
@@ -7040,7 +6926,7 @@
       <c r="N128" s="158"/>
       <c r="O128" s="159"/>
     </row>
-    <row r="129" spans="2:15">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" s="157"/>
       <c r="C129" s="158"/>
       <c r="D129" s="158"/>
@@ -7056,7 +6942,7 @@
       <c r="N129" s="158"/>
       <c r="O129" s="159"/>
     </row>
-    <row r="130" spans="2:15">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" s="157"/>
       <c r="C130" s="158"/>
       <c r="D130" s="158"/>
@@ -7076,10 +6962,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_chp_engine_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_engine_gas_power_fuelmix.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE38619-C760-9D4A-A0A3-96AE6D42409D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="25540" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="25540" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
   <si>
     <t>Source</t>
   </si>
@@ -277,36 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">         Technical lifetime</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>2010</t>
@@ -669,14 +640,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,6 +792,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,6 +800,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,6 +808,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,6 +816,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,17 +824,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,6 +851,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1440,7 +1419,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1549,8 +1528,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2001,6 +1978,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2022,7 +2002,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2060,7 +2046,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2097,7 +2089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2135,7 +2133,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2173,7 +2177,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2210,7 +2220,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2248,7 +2264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2708,58 +2730,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2768,118 +2790,118 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="104"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="106"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="107" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="109" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="115" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="116" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="110" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="113"/>
+      <c r="C23" s="117" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="108"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="111" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="112" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="113" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="114" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="118" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="115"/>
-      <c r="C23" s="119" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2889,67 +2911,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="33"/>
+    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="159" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="164"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+    <row r="4" spans="2:11" ht="41" customHeight="1">
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2960,12 +2982,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="120"/>
+    <row r="7" spans="2:11" s="40" customFormat="1" ht="19">
+      <c r="B7" s="118"/>
       <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="119" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2979,9 +3001,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="127"/>
-    </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2992,10 +3014,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3005,10 +3027,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="139" t="s">
-        <v>120</v>
+      <c r="C10" s="137" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -3020,12 +3042,12 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="150" t="s">
-        <v>122</v>
+      <c r="I10" s="148" t="s">
+        <v>112</v>
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="32" t="s">
         <v>65</v>
@@ -3044,7 +3066,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="36"/>
       <c r="C12" s="32" t="s">
         <v>36</v>
@@ -3061,10 +3083,10 @@
       <c r="I12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="128"/>
+      <c r="J12" s="126"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -3081,10 +3103,10 @@
       <c r="I13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="128"/>
+      <c r="J13" s="126"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>39</v>
@@ -3101,10 +3123,10 @@
       <c r="I14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="128"/>
+      <c r="J14" s="126"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>11</v>
@@ -3121,10 +3143,10 @@
       <c r="I15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="128"/>
+      <c r="J15" s="126"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>42</v>
@@ -3141,10 +3163,10 @@
       <c r="I16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="128"/>
+      <c r="J16" s="126"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3161,10 +3183,10 @@
       <c r="I17" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="128"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="36"/>
       <c r="C18" s="32" t="s">
         <v>44</v>
@@ -3184,9 +3206,9 @@
       <c r="I18" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="128"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="126"/>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="36"/>
       <c r="C19" s="32" t="s">
         <v>45</v>
@@ -3205,426 +3227,406 @@
       <c r="I19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="128"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="36"/>
-      <c r="C20" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="42">
-        <v>-0.75</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="128"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="90"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="126"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="36"/>
-      <c r="C21" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="42">
-        <v>-0.75</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="128"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="126"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="36"/>
-      <c r="C22" s="69" t="s">
-        <v>78</v>
+      <c r="C22" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="42">
-        <v>-0.75</v>
+        <v>35</v>
+      </c>
+      <c r="E22" s="43">
+        <f>'Research data'!G15</f>
+        <v>600000</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="70" t="s">
-        <v>83</v>
+      <c r="G22" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="H22" s="32"/>
-      <c r="I22" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="128"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="126"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="36"/>
-      <c r="C23" s="69" t="s">
-        <v>79</v>
+      <c r="C23" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="42">
-        <v>-0.75</v>
+        <v>35</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="70" t="s">
-        <v>84</v>
+      <c r="G23" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="128"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="126"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="36"/>
-      <c r="C24" s="69" t="s">
-        <v>80</v>
+      <c r="C24" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="42">
+        <v>35</v>
+      </c>
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="71" t="s">
-        <v>85</v>
+      <c r="G24" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="128"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="126"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="36"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="128"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="126"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="36"/>
-      <c r="C26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="128"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="120">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="126"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="43">
-        <f>'Research data'!G15</f>
-        <v>600000</v>
+        <v>55</v>
+      </c>
+      <c r="E27" s="42">
+        <f>'Research data'!G21</f>
+        <v>8</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="H27" s="32"/>
-      <c r="I27" s="147" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="128"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="126"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="43">
+        <v>55</v>
+      </c>
+      <c r="E28" s="123">
         <v>0</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H28" s="32"/>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="128"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="126"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="36"/>
       <c r="C29" s="32" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E29" s="43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="128"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="126"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="36"/>
       <c r="C30" s="32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E30" s="43">
         <v>0</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="32" t="s">
-        <v>28</v>
-      </c>
+      <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="128"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="126"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="36"/>
-      <c r="C31" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="122">
-        <v>0</v>
-      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="32" t="s">
-        <v>60</v>
-      </c>
+      <c r="G31" s="32"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="150" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="128"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="31"/>
+      <c r="J31" s="126"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="36"/>
-      <c r="C32" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="42">
-        <f>'Research data'!G21</f>
+      <c r="C32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="150" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="128"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="121"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="126"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="36"/>
       <c r="C33" s="32" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="125">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E33" s="43">
+        <f>'Research data'!G10</f>
+        <v>0.1</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="32" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="140" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="128"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="126"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="36"/>
       <c r="C34" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="43">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="120">
+        <f>'Research data'!G11</f>
+        <v>1</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34" s="32"/>
-      <c r="I34" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="128"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="126"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="36"/>
       <c r="C35" s="32" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E35" s="43">
+        <f>'Research data'!G12</f>
+        <v>20</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="126"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
+      <c r="B36" s="36"/>
+      <c r="C36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="43">
         <v>0</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="128"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="36"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="126"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="128"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="126"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="36"/>
-      <c r="C37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="128"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="43">
+        <v>360</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="126"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="36"/>
-      <c r="C38" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>4</v>
-      </c>
+      <c r="C38" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="43">
-        <f>'Research data'!G10</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
-      <c r="G38" s="32" t="s">
-        <v>16</v>
-      </c>
+      <c r="G38" s="32"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="J38" s="128"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="126"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="36"/>
-      <c r="C39" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="122">
-        <f>'Research data'!G11</f>
-        <v>1</v>
+      <c r="C39" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="43">
+        <v>2880</v>
       </c>
       <c r="F39" s="32"/>
-      <c r="G39" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="G39" s="32"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="145" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" s="128"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="126"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="36"/>
-      <c r="C40" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="C40" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="43">
-        <f>'Research data'!G12</f>
-        <v>20</v>
+        <v>1260</v>
       </c>
       <c r="F40" s="32"/>
-      <c r="G40" s="32" t="s">
-        <v>26</v>
-      </c>
+      <c r="G40" s="32"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="143" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="128"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="126"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="36"/>
-      <c r="C41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="C41" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="19"/>
       <c r="E41" s="43">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -3632,103 +3634,18 @@
       <c r="I41" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="128"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="43">
-        <v>360</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="128"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
-      <c r="C43" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="43">
-        <v>0</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" s="128"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="43">
-        <v>2880</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="128"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="43">
-        <v>1260</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="128"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="43">
-        <v>360</v>
-      </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" s="128"/>
-    </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="J41" s="126"/>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3740,116 +3657,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="73" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="73" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="73" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="73" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="73" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="73" customWidth="1"/>
-    <col min="15" max="15" width="3" style="73" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="73" customWidth="1"/>
-    <col min="17" max="17" width="3" style="73" customWidth="1"/>
-    <col min="18" max="18" width="69.5703125" style="72" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="72"/>
+    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="70" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="70" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="71" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="71" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="71" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="71" customWidth="1"/>
+    <col min="15" max="15" width="3" style="71" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="3" style="71" customWidth="1"/>
+    <col min="18" max="18" width="69.5" style="70" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="75"/>
-    </row>
-    <row r="3" spans="2:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="73"/>
+    </row>
+    <row r="3" spans="2:18" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="135" t="s">
-        <v>107</v>
+      <c r="C3" s="133" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="135"/>
+      <c r="G3" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="133"/>
       <c r="I3" s="66" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="O3" s="65"/>
       <c r="P3" s="65" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="65"/>
-      <c r="R3" s="135" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="133"/>
+      <c r="R3" s="133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
+    <row r="5" spans="2:18" ht="17" thickBot="1">
+      <c r="B5" s="75"/>
       <c r="C5" s="29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3867,102 +3784,102 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="69"/>
     </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77"/>
-      <c r="C6" s="80" t="s">
+    <row r="6" spans="2:18" ht="17" thickBot="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="82">
         <f>ROUND(1,0)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84">
+      <c r="H6" s="81"/>
+      <c r="I6" s="82">
         <f>Notes!D106/1000</f>
         <v>1</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="82">
+      <c r="J6" s="77"/>
+      <c r="K6" s="80">
         <f>Notes!D90/1000</f>
         <v>1.1890000000000001</v>
       </c>
-      <c r="L6" s="82">
+      <c r="L6" s="80">
         <f>Notes!D87/1000</f>
         <v>0.88900000000000001</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="84">
+      <c r="M6" s="77"/>
+      <c r="N6" s="82">
         <f>Notes!D13/1000</f>
         <v>1</v>
       </c>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="151"/>
-    </row>
-    <row r="7" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
-      <c r="C7" s="80" t="s">
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="149"/>
+    </row>
+    <row r="7" spans="2:18" ht="17" thickBot="1">
+      <c r="B7" s="75"/>
+      <c r="C7" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="137" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="138">
+      <c r="G7" s="136">
         <f>ROUND(N7,0)</f>
         <v>42</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="138">
+      <c r="H7" s="77"/>
+      <c r="I7" s="136">
         <f>Notes!D110</f>
         <v>40</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="138">
+      <c r="J7" s="77"/>
+      <c r="K7" s="136">
         <f>Notes!D91</f>
         <v>43</v>
       </c>
-      <c r="L7" s="138">
+      <c r="L7" s="136">
         <f>Notes!D88</f>
         <v>42.8</v>
       </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="84">
+      <c r="M7" s="83"/>
+      <c r="N7" s="82">
         <v>42</v>
       </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="151"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="77"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="152"/>
-    </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="77"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="149"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="75"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="150"/>
+    </row>
+    <row r="9" spans="2:18" ht="17" thickBot="1">
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
       </c>
@@ -3980,100 +3897,100 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="153"/>
-    </row>
-    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="136" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="81" t="s">
+      <c r="R9" s="151"/>
+    </row>
+    <row r="10" spans="2:18" ht="17" thickBot="1">
+      <c r="B10" s="75"/>
+      <c r="C10" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="92">
         <f>ROUND(0.1,1)</f>
         <v>0.1</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="94">
+      <c r="H10" s="86"/>
+      <c r="I10" s="92">
         <f>Notes!D121*Notes!D122/100000000</f>
         <v>8.4346000000000004E-2</v>
       </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="94">
+      <c r="J10" s="87"/>
+      <c r="K10" s="92">
         <f>Notes!D71*Notes!D72/100000000</f>
         <v>0.1206</v>
       </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="153"/>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
-      <c r="C11" s="93" t="s">
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="151"/>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1">
+      <c r="B11" s="75"/>
+      <c r="C11" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="81" t="s">
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="92">
         <f>ROUND(1,0)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="84">
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="82">
         <f>Notes!$D$52/12</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="153"/>
-    </row>
-    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
-      <c r="C12" s="95" t="s">
+      <c r="Q11" s="88"/>
+      <c r="R11" s="151"/>
+    </row>
+    <row r="12" spans="2:18" ht="17" thickBot="1">
+      <c r="B12" s="75"/>
+      <c r="C12" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="81" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="94">
         <f>ROUND(20,0)</f>
         <v>20</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="84">
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="82">
         <f>Notes!$D$53</f>
         <v>20</v>
       </c>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="151"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="77"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="149"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="75"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -4081,20 +3998,20 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="151"/>
-    </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="149"/>
+    </row>
+    <row r="14" spans="2:18" ht="17" thickBot="1">
+      <c r="B14" s="75"/>
       <c r="C14" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4110,280 +4027,280 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="151"/>
-    </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="129" t="s">
-        <v>112</v>
+      <c r="R14" s="149"/>
+    </row>
+    <row r="15" spans="2:18" ht="17" thickBot="1">
+      <c r="B15" s="75"/>
+      <c r="C15" s="127" t="s">
+        <v>102</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="92">
         <f>ROUND(G16*G6*1000,2)</f>
         <v>600000</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="151"/>
-    </row>
-    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="97" t="s">
+      <c r="I15" s="144"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="149"/>
+    </row>
+    <row r="16" spans="2:18" ht="17" thickBot="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="94">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="92">
         <f>N16</f>
         <v>600</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="101">
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="99">
         <f>Notes!D14</f>
         <v>600</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="151" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="141" t="s">
-        <v>113</v>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17" thickBot="1">
+      <c r="B17" s="75"/>
+      <c r="C17" s="139" t="s">
+        <v>103</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="148">
+      <c r="G17" s="146">
         <f>G18+G20</f>
         <v>48000</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="101">
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="99">
         <f>Notes!D33</f>
         <v>48000</v>
       </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="151"/>
-    </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
-      <c r="C18" s="141" t="s">
-        <v>114</v>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="149"/>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1">
+      <c r="B18" s="75"/>
+      <c r="C18" s="139" t="s">
+        <v>104</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="96">
         <f>ROUND(G19*G6*1000,2)</f>
         <v>0</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="151"/>
-    </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="129" t="s">
-        <v>115</v>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="149"/>
+    </row>
+    <row r="19" spans="2:18" ht="17" thickBot="1">
+      <c r="B19" s="75"/>
+      <c r="C19" s="127" t="s">
+        <v>105</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="131" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="98">
+      <c r="F19" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="96">
         <f>N19</f>
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="101">
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="99">
         <f>Notes!D34</f>
         <v>0</v>
       </c>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="151"/>
-    </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
-      <c r="C20" s="129" t="s">
-        <v>116</v>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="149"/>
+    </row>
+    <row r="20" spans="2:18" ht="17" thickBot="1">
+      <c r="B20" s="75"/>
+      <c r="C20" s="127" t="s">
+        <v>106</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G20" s="96">
         <f>ROUND(G21*G23, 2)</f>
         <v>48000</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="151"/>
-    </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="81" t="s">
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="149"/>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1">
+      <c r="B21" s="75"/>
+      <c r="C21" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="94">
+      <c r="G21" s="92">
         <f>ROUND(G22*G24/G23,2)</f>
         <v>8</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="151"/>
-    </row>
-    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
-      <c r="C22" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="101">
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="149"/>
+    </row>
+    <row r="22" spans="2:18" ht="17" thickBot="1">
+      <c r="B22" s="75"/>
+      <c r="C22" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="99">
         <f>N22</f>
         <v>8</v>
       </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="101">
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="99">
         <f>Notes!D35</f>
         <v>8</v>
       </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="153"/>
-    </row>
-    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="134" t="s">
-        <v>117</v>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="151"/>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1">
+      <c r="B23" s="75"/>
+      <c r="C23" s="132" t="s">
+        <v>107</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G23" s="100">
         <v>6000</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="151"/>
-    </row>
-    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77"/>
-      <c r="C24" s="142" t="s">
-        <v>125</v>
+      <c r="H23" s="90"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="149"/>
+    </row>
+    <row r="24" spans="2:18" ht="17" thickBot="1">
+      <c r="B24" s="75"/>
+      <c r="C24" s="140" t="s">
+        <v>115</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
-      <c r="F24" s="134" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="102">
+      <c r="F24" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="100">
         <f>G23*G6</f>
         <v>6000</v>
       </c>
-      <c r="H24" s="92"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="151"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4392,8 +4309,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
@@ -4402,22 +4319,22 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="32" style="46" customWidth="1"/>
-    <col min="11" max="11" width="75.42578125" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="45"/>
+    <col min="11" max="11" width="75.5" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4429,7 +4346,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4443,7 +4360,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4455,7 +4372,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>32</v>
@@ -4471,19 +4388,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4495,31 +4412,31 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="50"/>
       <c r="C7" s="64"/>
       <c r="D7" s="58"/>
       <c r="E7" s="53" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K7" s="67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="50"/>
       <c r="C8" s="59" t="s">
         <v>1</v>
@@ -4533,7 +4450,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="68"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="50"/>
       <c r="C9" s="58" t="s">
         <v>75</v>
@@ -4547,7 +4464,7 @@
       <c r="J9" s="54"/>
       <c r="K9" s="68"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="50"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -4559,32 +4476,32 @@
       <c r="J10" s="54"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="32">
       <c r="B11" s="50"/>
       <c r="C11" s="58"/>
       <c r="D11" s="63"/>
       <c r="E11" s="58" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="50"/>
       <c r="C12" s="63" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="58"/>
@@ -4595,10 +4512,10 @@
       <c r="J12" s="61"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="50"/>
       <c r="C13" s="58" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="58"/>
@@ -4609,10 +4526,10 @@
       <c r="J13" s="61"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="50"/>
       <c r="C14" s="58" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="58"/>
@@ -4623,7 +4540,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="50"/>
       <c r="C15" s="63" t="s">
         <v>61</v>
@@ -4637,7 +4554,7 @@
       <c r="J15" s="61"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="50"/>
       <c r="C16" s="63" t="s">
         <v>73</v>
@@ -4651,7 +4568,7 @@
       <c r="J16" s="61"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="50"/>
       <c r="C17" s="58"/>
       <c r="D17" s="63"/>
@@ -4663,12 +4580,12 @@
       <c r="J17" s="61"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="50"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="58" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>72</v>
@@ -4676,14 +4593,14 @@
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J18" s="61"/>
       <c r="K18" s="62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="50"/>
       <c r="C19" s="63" t="s">
         <v>73</v>
@@ -4696,10 +4613,10 @@
       <c r="J19" s="61"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="50"/>
       <c r="C20" s="63" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D20" s="63"/>
       <c r="F20" s="60"/>
@@ -4709,7 +4626,7 @@
       <c r="J20" s="61"/>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="50"/>
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
@@ -4721,12 +4638,12 @@
       <c r="J21" s="61"/>
       <c r="K21" s="58"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
       <c r="E22" s="58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" s="60" t="s">
         <v>72</v>
@@ -4734,14 +4651,14 @@
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J22" s="61"/>
-      <c r="K22" s="144" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="50"/>
       <c r="C23" s="63" t="s">
         <v>73</v>
@@ -4755,10 +4672,10 @@
       <c r="J23" s="54"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="50"/>
       <c r="C24" s="63" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -4771,7 +4688,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K22" r:id="rId1"/>
+    <hyperlink ref="K22" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4782,45 +4699,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O130"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="149" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="149" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="149" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="149"/>
+    <col min="1" max="1" width="5.5" style="147" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="147" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="147" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="147"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="156"/>
-    </row>
-    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="120"/>
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="154"/>
+    </row>
+    <row r="3" spans="2:15" s="21" customFormat="1">
+      <c r="B3" s="118"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4832,2131 +4749,2131 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="160"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="157"/>
-      <c r="C5" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="159"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="157"/>
-      <c r="C6" s="158" t="s">
+      <c r="O3" s="158"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="157"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="157"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="155"/>
+      <c r="C6" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="157"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="155"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="157"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="157"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="157"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="157"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="157"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="157"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="159"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="159"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="159"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="159"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="159"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="159"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="159"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158">
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="157"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156">
+        <v>600</v>
+      </c>
+      <c r="E14" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="157"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156">
+        <v>42</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="157"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="157"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="157"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="157"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="157"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="155"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="157"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="157"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="157"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="157"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="157"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="157"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="157"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="157"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="157"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="157"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="157"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="157"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="157"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="155"/>
+      <c r="C33" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="156">
+        <v>48000</v>
+      </c>
+      <c r="E33" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="157"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="155"/>
+      <c r="C34" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="156">
+        <v>0</v>
+      </c>
+      <c r="E34" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="157"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="155"/>
+      <c r="C35" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="156">
+        <v>8</v>
+      </c>
+      <c r="E35" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="157"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="157"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="157"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="155"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="157"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="155"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="157"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="155"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="157"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="157"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="155"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="157"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="155"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="157"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="155"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="157"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="157"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="157"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="155"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
+      <c r="N47" s="156"/>
+      <c r="O47" s="157"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="155"/>
+      <c r="C48" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
+      <c r="N48" s="156"/>
+      <c r="O48" s="157"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="155"/>
+      <c r="C49" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="157"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="157"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="155"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="157"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156">
+        <v>14</v>
+      </c>
+      <c r="E52" s="156" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="157"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="155"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156">
+        <v>20</v>
+      </c>
+      <c r="E53" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="156"/>
+      <c r="O53" s="157"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="157"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="155"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="157"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="155"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="157"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="155"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="157"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="155"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="157"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="157"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="155"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="157"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="157"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="155"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="157"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="155"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="157"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="155"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="157"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="155"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="157"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="155"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="157"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="155"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="156"/>
+      <c r="L67" s="156"/>
+      <c r="M67" s="156"/>
+      <c r="N67" s="156"/>
+      <c r="O67" s="157"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="155"/>
+      <c r="C68" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="156"/>
+      <c r="L68" s="156"/>
+      <c r="M68" s="156"/>
+      <c r="N68" s="156"/>
+      <c r="O68" s="157"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="155"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+      <c r="L69" s="156"/>
+      <c r="M69" s="156"/>
+      <c r="N69" s="156"/>
+      <c r="O69" s="157"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="155"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="156"/>
+      <c r="F70" s="156"/>
+      <c r="G70" s="156"/>
+      <c r="H70" s="156"/>
+      <c r="I70" s="156"/>
+      <c r="J70" s="156"/>
+      <c r="K70" s="156"/>
+      <c r="L70" s="156"/>
+      <c r="M70" s="156"/>
+      <c r="N70" s="156"/>
+      <c r="O70" s="157"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="155"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156">
+        <v>6700</v>
+      </c>
+      <c r="E71" s="156" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="156"/>
+      <c r="M71" s="156"/>
+      <c r="N71" s="156"/>
+      <c r="O71" s="157"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="155"/>
+      <c r="C72" s="156"/>
+      <c r="D72" s="156">
+        <v>1800</v>
+      </c>
+      <c r="E72" s="156" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="156"/>
+      <c r="G72" s="156"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="156"/>
+      <c r="L72" s="156"/>
+      <c r="M72" s="156"/>
+      <c r="N72" s="156"/>
+      <c r="O72" s="157"/>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="155"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="156"/>
+      <c r="G73" s="156"/>
+      <c r="H73" s="156"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="156"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="156"/>
+      <c r="M73" s="156"/>
+      <c r="N73" s="156"/>
+      <c r="O73" s="157"/>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="155"/>
+      <c r="C74" s="156"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="156"/>
+      <c r="F74" s="156"/>
+      <c r="G74" s="156"/>
+      <c r="H74" s="156"/>
+      <c r="I74" s="156"/>
+      <c r="J74" s="156"/>
+      <c r="K74" s="156"/>
+      <c r="L74" s="156"/>
+      <c r="M74" s="156"/>
+      <c r="N74" s="156"/>
+      <c r="O74" s="157"/>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="155"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="156"/>
+      <c r="L75" s="156"/>
+      <c r="M75" s="156"/>
+      <c r="N75" s="156"/>
+      <c r="O75" s="157"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="155"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="156"/>
+      <c r="K76" s="156"/>
+      <c r="L76" s="156"/>
+      <c r="M76" s="156"/>
+      <c r="N76" s="156"/>
+      <c r="O76" s="157"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="155"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+      <c r="L77" s="156"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="156"/>
+      <c r="O77" s="157"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="155"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="156"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="156"/>
+      <c r="K78" s="156"/>
+      <c r="L78" s="156"/>
+      <c r="M78" s="156"/>
+      <c r="N78" s="156"/>
+      <c r="O78" s="157"/>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="155"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
+      <c r="K79" s="156"/>
+      <c r="L79" s="156"/>
+      <c r="M79" s="156"/>
+      <c r="N79" s="156"/>
+      <c r="O79" s="157"/>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="155"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="156"/>
+      <c r="F80" s="156"/>
+      <c r="G80" s="156"/>
+      <c r="H80" s="156"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="156"/>
+      <c r="L80" s="156"/>
+      <c r="M80" s="156"/>
+      <c r="N80" s="156"/>
+      <c r="O80" s="157"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="155"/>
+      <c r="C81" s="156"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="156"/>
+      <c r="G81" s="156"/>
+      <c r="H81" s="156"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="156"/>
+      <c r="K81" s="156"/>
+      <c r="L81" s="156"/>
+      <c r="M81" s="156"/>
+      <c r="N81" s="156"/>
+      <c r="O81" s="157"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="155"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="156"/>
+      <c r="F82" s="156"/>
+      <c r="G82" s="156"/>
+      <c r="H82" s="156"/>
+      <c r="I82" s="156"/>
+      <c r="J82" s="156"/>
+      <c r="K82" s="156"/>
+      <c r="L82" s="156"/>
+      <c r="M82" s="156"/>
+      <c r="N82" s="156"/>
+      <c r="O82" s="157"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="155"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="156"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="156"/>
+      <c r="H83" s="156"/>
+      <c r="I83" s="156"/>
+      <c r="J83" s="156"/>
+      <c r="K83" s="156"/>
+      <c r="L83" s="156"/>
+      <c r="M83" s="156"/>
+      <c r="N83" s="156"/>
+      <c r="O83" s="157"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="155"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="156"/>
+      <c r="F84" s="156"/>
+      <c r="G84" s="156"/>
+      <c r="H84" s="156"/>
+      <c r="I84" s="156"/>
+      <c r="J84" s="156"/>
+      <c r="K84" s="156"/>
+      <c r="L84" s="156"/>
+      <c r="M84" s="156"/>
+      <c r="N84" s="156"/>
+      <c r="O84" s="157"/>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="155"/>
+      <c r="C85" s="156"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="156"/>
+      <c r="F85" s="156"/>
+      <c r="G85" s="156"/>
+      <c r="H85" s="156"/>
+      <c r="I85" s="156"/>
+      <c r="J85" s="156"/>
+      <c r="K85" s="156"/>
+      <c r="L85" s="156"/>
+      <c r="M85" s="156"/>
+      <c r="N85" s="156"/>
+      <c r="O85" s="157"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="155"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="156"/>
+      <c r="F86" s="156"/>
+      <c r="G86" s="156"/>
+      <c r="H86" s="156"/>
+      <c r="I86" s="156"/>
+      <c r="J86" s="156"/>
+      <c r="K86" s="156"/>
+      <c r="L86" s="156"/>
+      <c r="M86" s="156"/>
+      <c r="N86" s="156"/>
+      <c r="O86" s="157"/>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="155"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="156">
+        <v>889</v>
+      </c>
+      <c r="E87" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" s="156"/>
+      <c r="G87" s="156"/>
+      <c r="H87" s="156"/>
+      <c r="I87" s="156"/>
+      <c r="J87" s="156"/>
+      <c r="K87" s="156"/>
+      <c r="L87" s="156"/>
+      <c r="M87" s="156"/>
+      <c r="N87" s="156"/>
+      <c r="O87" s="157"/>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="155"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156">
+        <v>42.8</v>
+      </c>
+      <c r="E88" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="156"/>
+      <c r="I88" s="156"/>
+      <c r="J88" s="156"/>
+      <c r="K88" s="156"/>
+      <c r="L88" s="156"/>
+      <c r="M88" s="156"/>
+      <c r="N88" s="156"/>
+      <c r="O88" s="157"/>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="155"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="156"/>
+      <c r="I89" s="156"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="156"/>
+      <c r="L89" s="156"/>
+      <c r="M89" s="156"/>
+      <c r="N89" s="156"/>
+      <c r="O89" s="157"/>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="155"/>
+      <c r="C90" s="156"/>
+      <c r="D90" s="156">
+        <v>1189</v>
+      </c>
+      <c r="E90" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="156"/>
+      <c r="G90" s="156"/>
+      <c r="H90" s="156"/>
+      <c r="I90" s="156"/>
+      <c r="J90" s="156"/>
+      <c r="K90" s="156"/>
+      <c r="L90" s="156"/>
+      <c r="M90" s="156"/>
+      <c r="N90" s="156"/>
+      <c r="O90" s="157"/>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="155"/>
+      <c r="C91" s="156"/>
+      <c r="D91" s="156">
+        <v>43</v>
+      </c>
+      <c r="E91" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="156"/>
+      <c r="G91" s="156"/>
+      <c r="H91" s="156"/>
+      <c r="I91" s="156"/>
+      <c r="J91" s="156"/>
+      <c r="K91" s="156"/>
+      <c r="L91" s="156"/>
+      <c r="M91" s="156"/>
+      <c r="N91" s="156"/>
+      <c r="O91" s="157"/>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="155"/>
+      <c r="C92" s="156"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="156"/>
+      <c r="F92" s="156"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="156"/>
+      <c r="I92" s="156"/>
+      <c r="J92" s="156"/>
+      <c r="K92" s="156"/>
+      <c r="L92" s="156"/>
+      <c r="M92" s="156"/>
+      <c r="N92" s="156"/>
+      <c r="O92" s="157"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="155"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="156"/>
+      <c r="F93" s="156"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="156"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="156"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="156"/>
+      <c r="M93" s="156"/>
+      <c r="N93" s="156"/>
+      <c r="O93" s="157"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="155"/>
+      <c r="C94" s="156"/>
+      <c r="D94" s="156"/>
+      <c r="E94" s="156"/>
+      <c r="F94" s="156"/>
+      <c r="G94" s="156"/>
+      <c r="H94" s="156"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="156"/>
+      <c r="K94" s="156"/>
+      <c r="L94" s="156"/>
+      <c r="M94" s="156"/>
+      <c r="N94" s="156"/>
+      <c r="O94" s="157"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="155"/>
+      <c r="C95" s="156"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="156"/>
+      <c r="F95" s="156"/>
+      <c r="G95" s="156"/>
+      <c r="H95" s="156"/>
+      <c r="I95" s="156"/>
+      <c r="J95" s="156"/>
+      <c r="K95" s="156"/>
+      <c r="L95" s="156"/>
+      <c r="M95" s="156"/>
+      <c r="N95" s="156"/>
+      <c r="O95" s="157"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="155"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="156"/>
+      <c r="F96" s="156"/>
+      <c r="G96" s="156"/>
+      <c r="H96" s="156"/>
+      <c r="I96" s="156"/>
+      <c r="J96" s="156"/>
+      <c r="K96" s="156"/>
+      <c r="L96" s="156"/>
+      <c r="M96" s="156"/>
+      <c r="N96" s="156"/>
+      <c r="O96" s="157"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="155"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="156"/>
+      <c r="F97" s="156"/>
+      <c r="G97" s="156"/>
+      <c r="H97" s="156"/>
+      <c r="I97" s="156"/>
+      <c r="J97" s="156"/>
+      <c r="K97" s="156"/>
+      <c r="L97" s="156"/>
+      <c r="M97" s="156"/>
+      <c r="N97" s="156"/>
+      <c r="O97" s="157"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="155"/>
+      <c r="C98" s="156"/>
+      <c r="D98" s="156"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="156"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="156"/>
+      <c r="I98" s="156"/>
+      <c r="J98" s="156"/>
+      <c r="K98" s="156"/>
+      <c r="L98" s="156"/>
+      <c r="M98" s="156"/>
+      <c r="N98" s="156"/>
+      <c r="O98" s="157"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="155"/>
+      <c r="C99" s="156" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="156"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="156"/>
+      <c r="G99" s="156"/>
+      <c r="H99" s="156"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="156"/>
+      <c r="L99" s="156"/>
+      <c r="M99" s="156"/>
+      <c r="N99" s="156"/>
+      <c r="O99" s="157"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="155"/>
+      <c r="C100" s="156"/>
+      <c r="D100" s="156"/>
+      <c r="E100" s="156"/>
+      <c r="F100" s="156"/>
+      <c r="G100" s="156"/>
+      <c r="H100" s="156"/>
+      <c r="I100" s="156"/>
+      <c r="J100" s="156"/>
+      <c r="K100" s="156"/>
+      <c r="L100" s="156"/>
+      <c r="M100" s="156"/>
+      <c r="N100" s="156"/>
+      <c r="O100" s="157"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="155"/>
+      <c r="C101" s="156"/>
+      <c r="D101" s="156"/>
+      <c r="E101" s="156"/>
+      <c r="F101" s="156"/>
+      <c r="G101" s="156"/>
+      <c r="H101" s="156"/>
+      <c r="I101" s="156"/>
+      <c r="J101" s="156"/>
+      <c r="K101" s="156"/>
+      <c r="L101" s="156"/>
+      <c r="M101" s="156"/>
+      <c r="N101" s="156"/>
+      <c r="O101" s="157"/>
+    </row>
+    <row r="102" spans="2:15">
+      <c r="B102" s="155"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="156"/>
+      <c r="F102" s="156"/>
+      <c r="G102" s="156"/>
+      <c r="H102" s="156"/>
+      <c r="I102" s="156"/>
+      <c r="J102" s="156"/>
+      <c r="K102" s="156"/>
+      <c r="L102" s="156"/>
+      <c r="M102" s="156"/>
+      <c r="N102" s="156"/>
+      <c r="O102" s="157"/>
+    </row>
+    <row r="103" spans="2:15">
+      <c r="B103" s="155"/>
+      <c r="C103" s="156"/>
+      <c r="D103" s="156"/>
+      <c r="E103" s="156"/>
+      <c r="F103" s="156"/>
+      <c r="G103" s="156"/>
+      <c r="H103" s="156"/>
+      <c r="I103" s="156"/>
+      <c r="J103" s="156"/>
+      <c r="K103" s="156"/>
+      <c r="L103" s="156"/>
+      <c r="M103" s="156"/>
+      <c r="N103" s="156"/>
+      <c r="O103" s="157"/>
+    </row>
+    <row r="104" spans="2:15">
+      <c r="B104" s="155"/>
+      <c r="C104" s="156"/>
+      <c r="D104" s="156"/>
+      <c r="E104" s="156"/>
+      <c r="F104" s="156"/>
+      <c r="G104" s="156"/>
+      <c r="H104" s="156"/>
+      <c r="I104" s="156"/>
+      <c r="J104" s="156"/>
+      <c r="K104" s="156"/>
+      <c r="L104" s="156"/>
+      <c r="M104" s="156"/>
+      <c r="N104" s="156"/>
+      <c r="O104" s="157"/>
+    </row>
+    <row r="105" spans="2:15">
+      <c r="B105" s="155"/>
+      <c r="C105" s="156"/>
+      <c r="D105" s="156"/>
+      <c r="E105" s="156"/>
+      <c r="F105" s="156"/>
+      <c r="G105" s="156"/>
+      <c r="H105" s="156"/>
+      <c r="I105" s="156"/>
+      <c r="J105" s="156"/>
+      <c r="K105" s="156"/>
+      <c r="L105" s="156"/>
+      <c r="M105" s="156"/>
+      <c r="N105" s="156"/>
+      <c r="O105" s="157"/>
+    </row>
+    <row r="106" spans="2:15">
+      <c r="B106" s="155"/>
+      <c r="C106" s="156"/>
+      <c r="D106" s="156">
         <v>1000</v>
       </c>
-      <c r="E13" s="158" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="159"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158">
-        <v>600</v>
-      </c>
-      <c r="E14" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158">
-        <v>42</v>
-      </c>
-      <c r="E15" s="158" t="s">
+      <c r="E106" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" s="156"/>
+      <c r="G106" s="156"/>
+      <c r="H106" s="156"/>
+      <c r="I106" s="156"/>
+      <c r="J106" s="156"/>
+      <c r="K106" s="156"/>
+      <c r="L106" s="156"/>
+      <c r="M106" s="156"/>
+      <c r="N106" s="156"/>
+      <c r="O106" s="157"/>
+    </row>
+    <row r="107" spans="2:15">
+      <c r="B107" s="155"/>
+      <c r="C107" s="156"/>
+      <c r="D107" s="156"/>
+      <c r="E107" s="156"/>
+      <c r="F107" s="156"/>
+      <c r="G107" s="156"/>
+      <c r="H107" s="156"/>
+      <c r="I107" s="156"/>
+      <c r="J107" s="156"/>
+      <c r="K107" s="156"/>
+      <c r="L107" s="156"/>
+      <c r="M107" s="156"/>
+      <c r="N107" s="156"/>
+      <c r="O107" s="157"/>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="B108" s="155"/>
+      <c r="C108" s="156"/>
+      <c r="D108" s="156"/>
+      <c r="E108" s="156"/>
+      <c r="F108" s="156"/>
+      <c r="G108" s="156"/>
+      <c r="H108" s="156"/>
+      <c r="I108" s="156"/>
+      <c r="J108" s="156"/>
+      <c r="K108" s="156"/>
+      <c r="L108" s="156"/>
+      <c r="M108" s="156"/>
+      <c r="N108" s="156"/>
+      <c r="O108" s="157"/>
+    </row>
+    <row r="109" spans="2:15">
+      <c r="B109" s="155"/>
+      <c r="C109" s="156"/>
+      <c r="D109" s="156"/>
+      <c r="E109" s="156"/>
+      <c r="F109" s="156"/>
+      <c r="G109" s="156"/>
+      <c r="H109" s="156"/>
+      <c r="I109" s="156"/>
+      <c r="J109" s="156"/>
+      <c r="K109" s="156"/>
+      <c r="L109" s="156"/>
+      <c r="M109" s="156"/>
+      <c r="N109" s="156"/>
+      <c r="O109" s="157"/>
+    </row>
+    <row r="110" spans="2:15">
+      <c r="B110" s="155"/>
+      <c r="C110" s="156"/>
+      <c r="D110" s="156">
+        <v>40</v>
+      </c>
+      <c r="E110" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="159"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="159"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="159"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="159"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="159"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="159"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="157"/>
-      <c r="C21" s="158" t="s">
+      <c r="F110" s="156"/>
+      <c r="G110" s="156"/>
+      <c r="H110" s="156"/>
+      <c r="I110" s="156"/>
+      <c r="J110" s="156"/>
+      <c r="K110" s="156"/>
+      <c r="L110" s="156"/>
+      <c r="M110" s="156"/>
+      <c r="N110" s="156"/>
+      <c r="O110" s="157"/>
+    </row>
+    <row r="111" spans="2:15">
+      <c r="B111" s="155"/>
+      <c r="C111" s="156"/>
+      <c r="D111" s="156"/>
+      <c r="E111" s="156"/>
+      <c r="F111" s="156"/>
+      <c r="G111" s="156"/>
+      <c r="H111" s="156"/>
+      <c r="I111" s="156"/>
+      <c r="J111" s="156"/>
+      <c r="K111" s="156"/>
+      <c r="L111" s="156"/>
+      <c r="M111" s="156"/>
+      <c r="N111" s="156"/>
+      <c r="O111" s="157"/>
+    </row>
+    <row r="112" spans="2:15">
+      <c r="B112" s="155"/>
+      <c r="C112" s="156"/>
+      <c r="D112" s="156"/>
+      <c r="E112" s="156"/>
+      <c r="F112" s="156"/>
+      <c r="G112" s="156"/>
+      <c r="H112" s="156"/>
+      <c r="I112" s="156"/>
+      <c r="J112" s="156"/>
+      <c r="K112" s="156"/>
+      <c r="L112" s="156"/>
+      <c r="M112" s="156"/>
+      <c r="N112" s="156"/>
+      <c r="O112" s="157"/>
+    </row>
+    <row r="113" spans="2:15">
+      <c r="B113" s="155"/>
+      <c r="C113" s="156"/>
+      <c r="D113" s="156"/>
+      <c r="E113" s="156"/>
+      <c r="F113" s="156"/>
+      <c r="G113" s="156"/>
+      <c r="H113" s="156"/>
+      <c r="I113" s="156"/>
+      <c r="J113" s="156"/>
+      <c r="K113" s="156"/>
+      <c r="L113" s="156"/>
+      <c r="M113" s="156"/>
+      <c r="N113" s="156"/>
+      <c r="O113" s="157"/>
+    </row>
+    <row r="114" spans="2:15">
+      <c r="B114" s="155"/>
+      <c r="C114" s="156"/>
+      <c r="D114" s="156"/>
+      <c r="E114" s="156"/>
+      <c r="F114" s="156"/>
+      <c r="G114" s="156"/>
+      <c r="H114" s="156"/>
+      <c r="I114" s="156"/>
+      <c r="J114" s="156"/>
+      <c r="K114" s="156"/>
+      <c r="L114" s="156"/>
+      <c r="M114" s="156"/>
+      <c r="N114" s="156"/>
+      <c r="O114" s="157"/>
+    </row>
+    <row r="115" spans="2:15">
+      <c r="B115" s="155"/>
+      <c r="C115" s="156"/>
+      <c r="D115" s="156"/>
+      <c r="E115" s="156"/>
+      <c r="F115" s="156"/>
+      <c r="G115" s="156"/>
+      <c r="H115" s="156"/>
+      <c r="I115" s="156"/>
+      <c r="J115" s="156"/>
+      <c r="K115" s="156"/>
+      <c r="L115" s="156"/>
+      <c r="M115" s="156"/>
+      <c r="N115" s="156"/>
+      <c r="O115" s="157"/>
+    </row>
+    <row r="116" spans="2:15">
+      <c r="B116" s="155"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="156"/>
+      <c r="E116" s="156"/>
+      <c r="F116" s="156"/>
+      <c r="G116" s="156"/>
+      <c r="H116" s="156"/>
+      <c r="I116" s="156"/>
+      <c r="J116" s="156"/>
+      <c r="K116" s="156"/>
+      <c r="L116" s="156"/>
+      <c r="M116" s="156"/>
+      <c r="N116" s="156"/>
+      <c r="O116" s="157"/>
+    </row>
+    <row r="117" spans="2:15">
+      <c r="B117" s="155"/>
+      <c r="C117" s="156"/>
+      <c r="D117" s="156"/>
+      <c r="E117" s="156"/>
+      <c r="F117" s="156"/>
+      <c r="G117" s="156"/>
+      <c r="H117" s="156"/>
+      <c r="I117" s="156"/>
+      <c r="J117" s="156"/>
+      <c r="K117" s="156"/>
+      <c r="L117" s="156"/>
+      <c r="M117" s="156"/>
+      <c r="N117" s="156"/>
+      <c r="O117" s="157"/>
+    </row>
+    <row r="118" spans="2:15">
+      <c r="B118" s="155"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
+      <c r="J118" s="156"/>
+      <c r="K118" s="156"/>
+      <c r="L118" s="156"/>
+      <c r="M118" s="156"/>
+      <c r="N118" s="156"/>
+      <c r="O118" s="157"/>
+    </row>
+    <row r="119" spans="2:15">
+      <c r="B119" s="155"/>
+      <c r="C119" s="156"/>
+      <c r="D119" s="156"/>
+      <c r="E119" s="156"/>
+      <c r="F119" s="156"/>
+      <c r="G119" s="156"/>
+      <c r="H119" s="156"/>
+      <c r="I119" s="156"/>
+      <c r="J119" s="156"/>
+      <c r="K119" s="156"/>
+      <c r="L119" s="156"/>
+      <c r="M119" s="156"/>
+      <c r="N119" s="156"/>
+      <c r="O119" s="157"/>
+    </row>
+    <row r="120" spans="2:15">
+      <c r="B120" s="155"/>
+      <c r="C120" s="156"/>
+      <c r="D120" s="156"/>
+      <c r="E120" s="156"/>
+      <c r="F120" s="156"/>
+      <c r="G120" s="156"/>
+      <c r="H120" s="156"/>
+      <c r="I120" s="156"/>
+      <c r="J120" s="156"/>
+      <c r="K120" s="156"/>
+      <c r="L120" s="156"/>
+      <c r="M120" s="156"/>
+      <c r="N120" s="156"/>
+      <c r="O120" s="157"/>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="B121" s="155"/>
+      <c r="C121" s="156"/>
+      <c r="D121" s="156">
+        <v>4660</v>
+      </c>
+      <c r="E121" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="159"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="159"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="159"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="159"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="157"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="159"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="159"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="159"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="159"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="157"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="159"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="157"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="159"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="158">
-        <v>48000</v>
-      </c>
-      <c r="E33" s="158" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="159"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="157"/>
-      <c r="C34" s="158" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="158">
-        <v>0</v>
-      </c>
-      <c r="E34" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="159"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="157"/>
-      <c r="C35" s="158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="158">
-        <v>8</v>
-      </c>
-      <c r="E35" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="159"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="159"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="159"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="159"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="159"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="159"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="157"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="158"/>
-      <c r="O41" s="159"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="159"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="159"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="157"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="158"/>
-      <c r="N44" s="158"/>
-      <c r="O44" s="159"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="157"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="158"/>
-      <c r="N45" s="158"/>
-      <c r="O45" s="159"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="158"/>
-      <c r="N46" s="158"/>
-      <c r="O46" s="159"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="157"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="158"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="158"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="159"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="157"/>
-      <c r="C48" s="158" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="158"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="159"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="157"/>
-      <c r="C49" s="158" t="s">
+      <c r="F121" s="156"/>
+      <c r="G121" s="156"/>
+      <c r="H121" s="156"/>
+      <c r="I121" s="156"/>
+      <c r="J121" s="156"/>
+      <c r="K121" s="156"/>
+      <c r="L121" s="156"/>
+      <c r="M121" s="156"/>
+      <c r="N121" s="156"/>
+      <c r="O121" s="157"/>
+    </row>
+    <row r="122" spans="2:15">
+      <c r="B122" s="155"/>
+      <c r="C122" s="156"/>
+      <c r="D122" s="156">
+        <v>1810</v>
+      </c>
+      <c r="E122" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="159"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="157"/>
-      <c r="C50" s="158"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="158"/>
-      <c r="N50" s="158"/>
-      <c r="O50" s="159"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="157"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="158"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="158"/>
-      <c r="M51" s="158"/>
-      <c r="N51" s="158"/>
-      <c r="O51" s="159"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="157"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158">
-        <v>14</v>
-      </c>
-      <c r="E52" s="158" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="159"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="157"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158">
-        <v>20</v>
-      </c>
-      <c r="E53" s="158" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="159"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="158"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="158"/>
-      <c r="M54" s="158"/>
-      <c r="N54" s="158"/>
-      <c r="O54" s="159"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="157"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="158"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="159"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="157"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="159"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="157"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="158"/>
-      <c r="J57" s="158"/>
-      <c r="K57" s="158"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="158"/>
-      <c r="O57" s="159"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="157"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="158"/>
-      <c r="J58" s="158"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="158"/>
-      <c r="M58" s="158"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="159"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="157"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="158"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158"/>
-      <c r="M59" s="158"/>
-      <c r="N59" s="158"/>
-      <c r="O59" s="159"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="157"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="158"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="158"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="159"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="157"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="158"/>
-      <c r="K61" s="158"/>
-      <c r="L61" s="158"/>
-      <c r="M61" s="158"/>
-      <c r="N61" s="158"/>
-      <c r="O61" s="159"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="157"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
-      <c r="J62" s="158"/>
-      <c r="K62" s="158"/>
-      <c r="L62" s="158"/>
-      <c r="M62" s="158"/>
-      <c r="N62" s="158"/>
-      <c r="O62" s="159"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="157"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
-      <c r="M63" s="158"/>
-      <c r="N63" s="158"/>
-      <c r="O63" s="159"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="157"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="158"/>
-      <c r="M64" s="158"/>
-      <c r="N64" s="158"/>
-      <c r="O64" s="159"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="157"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="158"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="158"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="158"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="159"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="157"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="158"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="158"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="158"/>
-      <c r="M66" s="158"/>
-      <c r="N66" s="158"/>
-      <c r="O66" s="159"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="157"/>
-      <c r="C67" s="158"/>
-      <c r="D67" s="158"/>
-      <c r="E67" s="158"/>
-      <c r="F67" s="158"/>
-      <c r="G67" s="158"/>
-      <c r="H67" s="158"/>
-      <c r="I67" s="158"/>
-      <c r="J67" s="158"/>
-      <c r="K67" s="158"/>
-      <c r="L67" s="158"/>
-      <c r="M67" s="158"/>
-      <c r="N67" s="158"/>
-      <c r="O67" s="159"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="157"/>
-      <c r="C68" s="158" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="158"/>
-      <c r="E68" s="158"/>
-      <c r="F68" s="158"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="158"/>
-      <c r="J68" s="158"/>
-      <c r="K68" s="158"/>
-      <c r="L68" s="158"/>
-      <c r="M68" s="158"/>
-      <c r="N68" s="158"/>
-      <c r="O68" s="159"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="157"/>
-      <c r="C69" s="158"/>
-      <c r="D69" s="158"/>
-      <c r="E69" s="158"/>
-      <c r="F69" s="158"/>
-      <c r="G69" s="158"/>
-      <c r="H69" s="158"/>
-      <c r="I69" s="158"/>
-      <c r="J69" s="158"/>
-      <c r="K69" s="158"/>
-      <c r="L69" s="158"/>
-      <c r="M69" s="158"/>
-      <c r="N69" s="158"/>
-      <c r="O69" s="159"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="157"/>
-      <c r="C70" s="158"/>
-      <c r="D70" s="158"/>
-      <c r="E70" s="158"/>
-      <c r="F70" s="158"/>
-      <c r="G70" s="158"/>
-      <c r="H70" s="158"/>
-      <c r="I70" s="158"/>
-      <c r="J70" s="158"/>
-      <c r="K70" s="158"/>
-      <c r="L70" s="158"/>
-      <c r="M70" s="158"/>
-      <c r="N70" s="158"/>
-      <c r="O70" s="159"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="157"/>
-      <c r="C71" s="158"/>
-      <c r="D71" s="158">
-        <v>6700</v>
-      </c>
-      <c r="E71" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="158"/>
-      <c r="G71" s="158"/>
-      <c r="H71" s="158"/>
-      <c r="I71" s="158"/>
-      <c r="J71" s="158"/>
-      <c r="K71" s="158"/>
-      <c r="L71" s="158"/>
-      <c r="M71" s="158"/>
-      <c r="N71" s="158"/>
-      <c r="O71" s="159"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="157"/>
-      <c r="C72" s="158"/>
-      <c r="D72" s="158">
-        <v>1800</v>
-      </c>
-      <c r="E72" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" s="158"/>
-      <c r="G72" s="158"/>
-      <c r="H72" s="158"/>
-      <c r="I72" s="158"/>
-      <c r="J72" s="158"/>
-      <c r="K72" s="158"/>
-      <c r="L72" s="158"/>
-      <c r="M72" s="158"/>
-      <c r="N72" s="158"/>
-      <c r="O72" s="159"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="157"/>
-      <c r="C73" s="158"/>
-      <c r="D73" s="158"/>
-      <c r="E73" s="158"/>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="158"/>
-      <c r="O73" s="159"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="157"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="158"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="158"/>
-      <c r="L74" s="158"/>
-      <c r="M74" s="158"/>
-      <c r="N74" s="158"/>
-      <c r="O74" s="159"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="157"/>
-      <c r="C75" s="158"/>
-      <c r="D75" s="158"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="158"/>
-      <c r="G75" s="158"/>
-      <c r="H75" s="158"/>
-      <c r="I75" s="158"/>
-      <c r="J75" s="158"/>
-      <c r="K75" s="158"/>
-      <c r="L75" s="158"/>
-      <c r="M75" s="158"/>
-      <c r="N75" s="158"/>
-      <c r="O75" s="159"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="157"/>
-      <c r="C76" s="158"/>
-      <c r="D76" s="158"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="158"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="158"/>
-      <c r="K76" s="158"/>
-      <c r="L76" s="158"/>
-      <c r="M76" s="158"/>
-      <c r="N76" s="158"/>
-      <c r="O76" s="159"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="157"/>
-      <c r="C77" s="158"/>
-      <c r="D77" s="158"/>
-      <c r="E77" s="158"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="158"/>
-      <c r="I77" s="158"/>
-      <c r="J77" s="158"/>
-      <c r="K77" s="158"/>
-      <c r="L77" s="158"/>
-      <c r="M77" s="158"/>
-      <c r="N77" s="158"/>
-      <c r="O77" s="159"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="157"/>
-      <c r="C78" s="158"/>
-      <c r="D78" s="158"/>
-      <c r="E78" s="158"/>
-      <c r="F78" s="158"/>
-      <c r="G78" s="158"/>
-      <c r="H78" s="158"/>
-      <c r="I78" s="158"/>
-      <c r="J78" s="158"/>
-      <c r="K78" s="158"/>
-      <c r="L78" s="158"/>
-      <c r="M78" s="158"/>
-      <c r="N78" s="158"/>
-      <c r="O78" s="159"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="157"/>
-      <c r="C79" s="158"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="158"/>
-      <c r="F79" s="158"/>
-      <c r="G79" s="158"/>
-      <c r="H79" s="158"/>
-      <c r="I79" s="158"/>
-      <c r="J79" s="158"/>
-      <c r="K79" s="158"/>
-      <c r="L79" s="158"/>
-      <c r="M79" s="158"/>
-      <c r="N79" s="158"/>
-      <c r="O79" s="159"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="157"/>
-      <c r="C80" s="158"/>
-      <c r="D80" s="158"/>
-      <c r="E80" s="158"/>
-      <c r="F80" s="158"/>
-      <c r="G80" s="158"/>
-      <c r="H80" s="158"/>
-      <c r="I80" s="158"/>
-      <c r="J80" s="158"/>
-      <c r="K80" s="158"/>
-      <c r="L80" s="158"/>
-      <c r="M80" s="158"/>
-      <c r="N80" s="158"/>
-      <c r="O80" s="159"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="157"/>
-      <c r="C81" s="158"/>
-      <c r="D81" s="158"/>
-      <c r="E81" s="158"/>
-      <c r="F81" s="158"/>
-      <c r="G81" s="158"/>
-      <c r="H81" s="158"/>
-      <c r="I81" s="158"/>
-      <c r="J81" s="158"/>
-      <c r="K81" s="158"/>
-      <c r="L81" s="158"/>
-      <c r="M81" s="158"/>
-      <c r="N81" s="158"/>
-      <c r="O81" s="159"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="157"/>
-      <c r="C82" s="158"/>
-      <c r="D82" s="158"/>
-      <c r="E82" s="158"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="158"/>
-      <c r="H82" s="158"/>
-      <c r="I82" s="158"/>
-      <c r="J82" s="158"/>
-      <c r="K82" s="158"/>
-      <c r="L82" s="158"/>
-      <c r="M82" s="158"/>
-      <c r="N82" s="158"/>
-      <c r="O82" s="159"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="157"/>
-      <c r="C83" s="158"/>
-      <c r="D83" s="158"/>
-      <c r="E83" s="158"/>
-      <c r="F83" s="158"/>
-      <c r="G83" s="158"/>
-      <c r="H83" s="158"/>
-      <c r="I83" s="158"/>
-      <c r="J83" s="158"/>
-      <c r="K83" s="158"/>
-      <c r="L83" s="158"/>
-      <c r="M83" s="158"/>
-      <c r="N83" s="158"/>
-      <c r="O83" s="159"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="157"/>
-      <c r="C84" s="158"/>
-      <c r="D84" s="158"/>
-      <c r="E84" s="158"/>
-      <c r="F84" s="158"/>
-      <c r="G84" s="158"/>
-      <c r="H84" s="158"/>
-      <c r="I84" s="158"/>
-      <c r="J84" s="158"/>
-      <c r="K84" s="158"/>
-      <c r="L84" s="158"/>
-      <c r="M84" s="158"/>
-      <c r="N84" s="158"/>
-      <c r="O84" s="159"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="157"/>
-      <c r="C85" s="158"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="158"/>
-      <c r="I85" s="158"/>
-      <c r="J85" s="158"/>
-      <c r="K85" s="158"/>
-      <c r="L85" s="158"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="158"/>
-      <c r="O85" s="159"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="157"/>
-      <c r="C86" s="158"/>
-      <c r="D86" s="158"/>
-      <c r="E86" s="158"/>
-      <c r="F86" s="158"/>
-      <c r="G86" s="158"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="158"/>
-      <c r="J86" s="158"/>
-      <c r="K86" s="158"/>
-      <c r="L86" s="158"/>
-      <c r="M86" s="158"/>
-      <c r="N86" s="158"/>
-      <c r="O86" s="159"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="157"/>
-      <c r="C87" s="158"/>
-      <c r="D87" s="158">
-        <v>889</v>
-      </c>
-      <c r="E87" s="158" t="s">
-        <v>148</v>
-      </c>
-      <c r="F87" s="158"/>
-      <c r="G87" s="158"/>
-      <c r="H87" s="158"/>
-      <c r="I87" s="158"/>
-      <c r="J87" s="158"/>
-      <c r="K87" s="158"/>
-      <c r="L87" s="158"/>
-      <c r="M87" s="158"/>
-      <c r="N87" s="158"/>
-      <c r="O87" s="159"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="157"/>
-      <c r="C88" s="158"/>
-      <c r="D88" s="158">
-        <v>42.8</v>
-      </c>
-      <c r="E88" s="158" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="158"/>
-      <c r="G88" s="158"/>
-      <c r="H88" s="158"/>
-      <c r="I88" s="158"/>
-      <c r="J88" s="158"/>
-      <c r="K88" s="158"/>
-      <c r="L88" s="158"/>
-      <c r="M88" s="158"/>
-      <c r="N88" s="158"/>
-      <c r="O88" s="159"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="157"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="158"/>
-      <c r="F89" s="158"/>
-      <c r="G89" s="158"/>
-      <c r="H89" s="158"/>
-      <c r="I89" s="158"/>
-      <c r="J89" s="158"/>
-      <c r="K89" s="158"/>
-      <c r="L89" s="158"/>
-      <c r="M89" s="158"/>
-      <c r="N89" s="158"/>
-      <c r="O89" s="159"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="157"/>
-      <c r="C90" s="158"/>
-      <c r="D90" s="158">
-        <v>1189</v>
-      </c>
-      <c r="E90" s="158" t="s">
-        <v>148</v>
-      </c>
-      <c r="F90" s="158"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="158"/>
-      <c r="I90" s="158"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="158"/>
-      <c r="L90" s="158"/>
-      <c r="M90" s="158"/>
-      <c r="N90" s="158"/>
-      <c r="O90" s="159"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="157"/>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158">
-        <v>43</v>
-      </c>
-      <c r="E91" s="158" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="158"/>
-      <c r="G91" s="158"/>
-      <c r="H91" s="158"/>
-      <c r="I91" s="158"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="158"/>
-      <c r="L91" s="158"/>
-      <c r="M91" s="158"/>
-      <c r="N91" s="158"/>
-      <c r="O91" s="159"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="157"/>
-      <c r="C92" s="158"/>
-      <c r="D92" s="158"/>
-      <c r="E92" s="158"/>
-      <c r="F92" s="158"/>
-      <c r="G92" s="158"/>
-      <c r="H92" s="158"/>
-      <c r="I92" s="158"/>
-      <c r="J92" s="158"/>
-      <c r="K92" s="158"/>
-      <c r="L92" s="158"/>
-      <c r="M92" s="158"/>
-      <c r="N92" s="158"/>
-      <c r="O92" s="159"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="157"/>
-      <c r="C93" s="158"/>
-      <c r="D93" s="158"/>
-      <c r="E93" s="158"/>
-      <c r="F93" s="158"/>
-      <c r="G93" s="158"/>
-      <c r="H93" s="158"/>
-      <c r="I93" s="158"/>
-      <c r="J93" s="158"/>
-      <c r="K93" s="158"/>
-      <c r="L93" s="158"/>
-      <c r="M93" s="158"/>
-      <c r="N93" s="158"/>
-      <c r="O93" s="159"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="157"/>
-      <c r="C94" s="158"/>
-      <c r="D94" s="158"/>
-      <c r="E94" s="158"/>
-      <c r="F94" s="158"/>
-      <c r="G94" s="158"/>
-      <c r="H94" s="158"/>
-      <c r="I94" s="158"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="158"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="159"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="157"/>
-      <c r="C95" s="158"/>
-      <c r="D95" s="158"/>
-      <c r="E95" s="158"/>
-      <c r="F95" s="158"/>
-      <c r="G95" s="158"/>
-      <c r="H95" s="158"/>
-      <c r="I95" s="158"/>
-      <c r="J95" s="158"/>
-      <c r="K95" s="158"/>
-      <c r="L95" s="158"/>
-      <c r="M95" s="158"/>
-      <c r="N95" s="158"/>
-      <c r="O95" s="159"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="157"/>
-      <c r="C96" s="158"/>
-      <c r="D96" s="158"/>
-      <c r="E96" s="158"/>
-      <c r="F96" s="158"/>
-      <c r="G96" s="158"/>
-      <c r="H96" s="158"/>
-      <c r="I96" s="158"/>
-      <c r="J96" s="158"/>
-      <c r="K96" s="158"/>
-      <c r="L96" s="158"/>
-      <c r="M96" s="158"/>
-      <c r="N96" s="158"/>
-      <c r="O96" s="159"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="157"/>
-      <c r="C97" s="158"/>
-      <c r="D97" s="158"/>
-      <c r="E97" s="158"/>
-      <c r="F97" s="158"/>
-      <c r="G97" s="158"/>
-      <c r="H97" s="158"/>
-      <c r="I97" s="158"/>
-      <c r="J97" s="158"/>
-      <c r="K97" s="158"/>
-      <c r="L97" s="158"/>
-      <c r="M97" s="158"/>
-      <c r="N97" s="158"/>
-      <c r="O97" s="159"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="157"/>
-      <c r="C98" s="158"/>
-      <c r="D98" s="158"/>
-      <c r="E98" s="158"/>
-      <c r="F98" s="158"/>
-      <c r="G98" s="158"/>
-      <c r="H98" s="158"/>
-      <c r="I98" s="158"/>
-      <c r="J98" s="158"/>
-      <c r="K98" s="158"/>
-      <c r="L98" s="158"/>
-      <c r="M98" s="158"/>
-      <c r="N98" s="158"/>
-      <c r="O98" s="159"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="157"/>
-      <c r="C99" s="158" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="158"/>
-      <c r="E99" s="158"/>
-      <c r="F99" s="158"/>
-      <c r="G99" s="158"/>
-      <c r="H99" s="158"/>
-      <c r="I99" s="158"/>
-      <c r="J99" s="158"/>
-      <c r="K99" s="158"/>
-      <c r="L99" s="158"/>
-      <c r="M99" s="158"/>
-      <c r="N99" s="158"/>
-      <c r="O99" s="159"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="157"/>
-      <c r="C100" s="158"/>
-      <c r="D100" s="158"/>
-      <c r="E100" s="158"/>
-      <c r="F100" s="158"/>
-      <c r="G100" s="158"/>
-      <c r="H100" s="158"/>
-      <c r="I100" s="158"/>
-      <c r="J100" s="158"/>
-      <c r="K100" s="158"/>
-      <c r="L100" s="158"/>
-      <c r="M100" s="158"/>
-      <c r="N100" s="158"/>
-      <c r="O100" s="159"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="157"/>
-      <c r="C101" s="158"/>
-      <c r="D101" s="158"/>
-      <c r="E101" s="158"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="158"/>
-      <c r="J101" s="158"/>
-      <c r="K101" s="158"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="158"/>
-      <c r="N101" s="158"/>
-      <c r="O101" s="159"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="157"/>
-      <c r="C102" s="158"/>
-      <c r="D102" s="158"/>
-      <c r="E102" s="158"/>
-      <c r="F102" s="158"/>
-      <c r="G102" s="158"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="158"/>
-      <c r="J102" s="158"/>
-      <c r="K102" s="158"/>
-      <c r="L102" s="158"/>
-      <c r="M102" s="158"/>
-      <c r="N102" s="158"/>
-      <c r="O102" s="159"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="157"/>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="159"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="157"/>
-      <c r="C104" s="158"/>
-      <c r="D104" s="158"/>
-      <c r="E104" s="158"/>
-      <c r="F104" s="158"/>
-      <c r="G104" s="158"/>
-      <c r="H104" s="158"/>
-      <c r="I104" s="158"/>
-      <c r="J104" s="158"/>
-      <c r="K104" s="158"/>
-      <c r="L104" s="158"/>
-      <c r="M104" s="158"/>
-      <c r="N104" s="158"/>
-      <c r="O104" s="159"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="157"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
-      <c r="E105" s="158"/>
-      <c r="F105" s="158"/>
-      <c r="G105" s="158"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="159"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="157"/>
-      <c r="C106" s="158"/>
-      <c r="D106" s="158">
-        <v>1000</v>
-      </c>
-      <c r="E106" s="158" t="s">
-        <v>148</v>
-      </c>
-      <c r="F106" s="158"/>
-      <c r="G106" s="158"/>
-      <c r="H106" s="158"/>
-      <c r="I106" s="158"/>
-      <c r="J106" s="158"/>
-      <c r="K106" s="158"/>
-      <c r="L106" s="158"/>
-      <c r="M106" s="158"/>
-      <c r="N106" s="158"/>
-      <c r="O106" s="159"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="157"/>
-      <c r="C107" s="158"/>
-      <c r="D107" s="158"/>
-      <c r="E107" s="158"/>
-      <c r="F107" s="158"/>
-      <c r="G107" s="158"/>
-      <c r="H107" s="158"/>
-      <c r="I107" s="158"/>
-      <c r="J107" s="158"/>
-      <c r="K107" s="158"/>
-      <c r="L107" s="158"/>
-      <c r="M107" s="158"/>
-      <c r="N107" s="158"/>
-      <c r="O107" s="159"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="157"/>
-      <c r="C108" s="158"/>
-      <c r="D108" s="158"/>
-      <c r="E108" s="158"/>
-      <c r="F108" s="158"/>
-      <c r="G108" s="158"/>
-      <c r="H108" s="158"/>
-      <c r="I108" s="158"/>
-      <c r="J108" s="158"/>
-      <c r="K108" s="158"/>
-      <c r="L108" s="158"/>
-      <c r="M108" s="158"/>
-      <c r="N108" s="158"/>
-      <c r="O108" s="159"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="157"/>
-      <c r="C109" s="158"/>
-      <c r="D109" s="158"/>
-      <c r="E109" s="158"/>
-      <c r="F109" s="158"/>
-      <c r="G109" s="158"/>
-      <c r="H109" s="158"/>
-      <c r="I109" s="158"/>
-      <c r="J109" s="158"/>
-      <c r="K109" s="158"/>
-      <c r="L109" s="158"/>
-      <c r="M109" s="158"/>
-      <c r="N109" s="158"/>
-      <c r="O109" s="159"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="157"/>
-      <c r="C110" s="158"/>
-      <c r="D110" s="158">
-        <v>40</v>
-      </c>
-      <c r="E110" s="158" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="158"/>
-      <c r="G110" s="158"/>
-      <c r="H110" s="158"/>
-      <c r="I110" s="158"/>
-      <c r="J110" s="158"/>
-      <c r="K110" s="158"/>
-      <c r="L110" s="158"/>
-      <c r="M110" s="158"/>
-      <c r="N110" s="158"/>
-      <c r="O110" s="159"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="157"/>
-      <c r="C111" s="158"/>
-      <c r="D111" s="158"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="158"/>
-      <c r="G111" s="158"/>
-      <c r="H111" s="158"/>
-      <c r="I111" s="158"/>
-      <c r="J111" s="158"/>
-      <c r="K111" s="158"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="158"/>
-      <c r="N111" s="158"/>
-      <c r="O111" s="159"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="157"/>
-      <c r="C112" s="158"/>
-      <c r="D112" s="158"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="158"/>
-      <c r="G112" s="158"/>
-      <c r="H112" s="158"/>
-      <c r="I112" s="158"/>
-      <c r="J112" s="158"/>
-      <c r="K112" s="158"/>
-      <c r="L112" s="158"/>
-      <c r="M112" s="158"/>
-      <c r="N112" s="158"/>
-      <c r="O112" s="159"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="157"/>
-      <c r="C113" s="158"/>
-      <c r="D113" s="158"/>
-      <c r="E113" s="158"/>
-      <c r="F113" s="158"/>
-      <c r="G113" s="158"/>
-      <c r="H113" s="158"/>
-      <c r="I113" s="158"/>
-      <c r="J113" s="158"/>
-      <c r="K113" s="158"/>
-      <c r="L113" s="158"/>
-      <c r="M113" s="158"/>
-      <c r="N113" s="158"/>
-      <c r="O113" s="159"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="157"/>
-      <c r="C114" s="158"/>
-      <c r="D114" s="158"/>
-      <c r="E114" s="158"/>
-      <c r="F114" s="158"/>
-      <c r="G114" s="158"/>
-      <c r="H114" s="158"/>
-      <c r="I114" s="158"/>
-      <c r="J114" s="158"/>
-      <c r="K114" s="158"/>
-      <c r="L114" s="158"/>
-      <c r="M114" s="158"/>
-      <c r="N114" s="158"/>
-      <c r="O114" s="159"/>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="157"/>
-      <c r="C115" s="158"/>
-      <c r="D115" s="158"/>
-      <c r="E115" s="158"/>
-      <c r="F115" s="158"/>
-      <c r="G115" s="158"/>
-      <c r="H115" s="158"/>
-      <c r="I115" s="158"/>
-      <c r="J115" s="158"/>
-      <c r="K115" s="158"/>
-      <c r="L115" s="158"/>
-      <c r="M115" s="158"/>
-      <c r="N115" s="158"/>
-      <c r="O115" s="159"/>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="157"/>
-      <c r="C116" s="158"/>
-      <c r="D116" s="158"/>
-      <c r="E116" s="158"/>
-      <c r="F116" s="158"/>
-      <c r="G116" s="158"/>
-      <c r="H116" s="158"/>
-      <c r="I116" s="158"/>
-      <c r="J116" s="158"/>
-      <c r="K116" s="158"/>
-      <c r="L116" s="158"/>
-      <c r="M116" s="158"/>
-      <c r="N116" s="158"/>
-      <c r="O116" s="159"/>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="157"/>
-      <c r="C117" s="158"/>
-      <c r="D117" s="158"/>
-      <c r="E117" s="158"/>
-      <c r="F117" s="158"/>
-      <c r="G117" s="158"/>
-      <c r="H117" s="158"/>
-      <c r="I117" s="158"/>
-      <c r="J117" s="158"/>
-      <c r="K117" s="158"/>
-      <c r="L117" s="158"/>
-      <c r="M117" s="158"/>
-      <c r="N117" s="158"/>
-      <c r="O117" s="159"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="157"/>
-      <c r="C118" s="158"/>
-      <c r="D118" s="158"/>
-      <c r="E118" s="158"/>
-      <c r="F118" s="158"/>
-      <c r="G118" s="158"/>
-      <c r="H118" s="158"/>
-      <c r="I118" s="158"/>
-      <c r="J118" s="158"/>
-      <c r="K118" s="158"/>
-      <c r="L118" s="158"/>
-      <c r="M118" s="158"/>
-      <c r="N118" s="158"/>
-      <c r="O118" s="159"/>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="157"/>
-      <c r="C119" s="158"/>
-      <c r="D119" s="158"/>
-      <c r="E119" s="158"/>
-      <c r="F119" s="158"/>
-      <c r="G119" s="158"/>
-      <c r="H119" s="158"/>
-      <c r="I119" s="158"/>
-      <c r="J119" s="158"/>
-      <c r="K119" s="158"/>
-      <c r="L119" s="158"/>
-      <c r="M119" s="158"/>
-      <c r="N119" s="158"/>
-      <c r="O119" s="159"/>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="157"/>
-      <c r="C120" s="158"/>
-      <c r="D120" s="158"/>
-      <c r="E120" s="158"/>
-      <c r="F120" s="158"/>
-      <c r="G120" s="158"/>
-      <c r="H120" s="158"/>
-      <c r="I120" s="158"/>
-      <c r="J120" s="158"/>
-      <c r="K120" s="158"/>
-      <c r="L120" s="158"/>
-      <c r="M120" s="158"/>
-      <c r="N120" s="158"/>
-      <c r="O120" s="159"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="157"/>
-      <c r="C121" s="158"/>
-      <c r="D121" s="158">
-        <v>4660</v>
-      </c>
-      <c r="E121" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="F121" s="158"/>
-      <c r="G121" s="158"/>
-      <c r="H121" s="158"/>
-      <c r="I121" s="158"/>
-      <c r="J121" s="158"/>
-      <c r="K121" s="158"/>
-      <c r="L121" s="158"/>
-      <c r="M121" s="158"/>
-      <c r="N121" s="158"/>
-      <c r="O121" s="159"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="157"/>
-      <c r="C122" s="158"/>
-      <c r="D122" s="158">
-        <v>1810</v>
-      </c>
-      <c r="E122" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="F122" s="158"/>
-      <c r="G122" s="158"/>
-      <c r="H122" s="158"/>
-      <c r="I122" s="158"/>
-      <c r="J122" s="158"/>
-      <c r="K122" s="158"/>
-      <c r="L122" s="158"/>
-      <c r="M122" s="158"/>
-      <c r="N122" s="158"/>
-      <c r="O122" s="159"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="157"/>
-      <c r="C123" s="158"/>
-      <c r="D123" s="158"/>
-      <c r="E123" s="158"/>
-      <c r="F123" s="158"/>
-      <c r="G123" s="158"/>
-      <c r="H123" s="158"/>
-      <c r="I123" s="158"/>
-      <c r="J123" s="158"/>
-      <c r="K123" s="158"/>
-      <c r="L123" s="158"/>
-      <c r="M123" s="158"/>
-      <c r="N123" s="158"/>
-      <c r="O123" s="159"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="157"/>
-      <c r="C124" s="158"/>
-      <c r="D124" s="158"/>
-      <c r="E124" s="158"/>
-      <c r="F124" s="158"/>
-      <c r="G124" s="158"/>
-      <c r="H124" s="158"/>
-      <c r="I124" s="158"/>
-      <c r="J124" s="158"/>
-      <c r="K124" s="158"/>
-      <c r="L124" s="158"/>
-      <c r="M124" s="158"/>
-      <c r="N124" s="158"/>
-      <c r="O124" s="159"/>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="157"/>
-      <c r="C125" s="158"/>
-      <c r="D125" s="158"/>
-      <c r="E125" s="158"/>
-      <c r="F125" s="158"/>
-      <c r="G125" s="158"/>
-      <c r="H125" s="158"/>
-      <c r="I125" s="158"/>
-      <c r="J125" s="158"/>
-      <c r="K125" s="158"/>
-      <c r="L125" s="158"/>
-      <c r="M125" s="158"/>
-      <c r="N125" s="158"/>
-      <c r="O125" s="159"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="157"/>
-      <c r="C126" s="158"/>
-      <c r="D126" s="158"/>
-      <c r="E126" s="158"/>
-      <c r="F126" s="158"/>
-      <c r="G126" s="158"/>
-      <c r="H126" s="158"/>
-      <c r="I126" s="158"/>
-      <c r="J126" s="158"/>
-      <c r="K126" s="158"/>
-      <c r="L126" s="158"/>
-      <c r="M126" s="158"/>
-      <c r="N126" s="158"/>
-      <c r="O126" s="159"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="157"/>
-      <c r="C127" s="158"/>
-      <c r="D127" s="158"/>
-      <c r="E127" s="158"/>
-      <c r="F127" s="158"/>
-      <c r="G127" s="158"/>
-      <c r="H127" s="158"/>
-      <c r="I127" s="158"/>
-      <c r="J127" s="158"/>
-      <c r="K127" s="158"/>
-      <c r="L127" s="158"/>
-      <c r="M127" s="158"/>
-      <c r="N127" s="158"/>
-      <c r="O127" s="159"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="157"/>
-      <c r="C128" s="158"/>
-      <c r="D128" s="158"/>
-      <c r="E128" s="158"/>
-      <c r="F128" s="158"/>
-      <c r="G128" s="158"/>
-      <c r="H128" s="158"/>
-      <c r="I128" s="158"/>
-      <c r="J128" s="158"/>
-      <c r="K128" s="158"/>
-      <c r="L128" s="158"/>
-      <c r="M128" s="158"/>
-      <c r="N128" s="158"/>
-      <c r="O128" s="159"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="157"/>
-      <c r="C129" s="158"/>
-      <c r="D129" s="158"/>
-      <c r="E129" s="158"/>
-      <c r="F129" s="158"/>
-      <c r="G129" s="158"/>
-      <c r="H129" s="158"/>
-      <c r="I129" s="158"/>
-      <c r="J129" s="158"/>
-      <c r="K129" s="158"/>
-      <c r="L129" s="158"/>
-      <c r="M129" s="158"/>
-      <c r="N129" s="158"/>
-      <c r="O129" s="159"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="157"/>
-      <c r="C130" s="158"/>
-      <c r="D130" s="158"/>
-      <c r="E130" s="158"/>
-      <c r="F130" s="158"/>
-      <c r="G130" s="158"/>
-      <c r="H130" s="158"/>
-      <c r="I130" s="158"/>
-      <c r="J130" s="158"/>
-      <c r="K130" s="158"/>
-      <c r="L130" s="158"/>
-      <c r="M130" s="158"/>
-      <c r="N130" s="158"/>
-      <c r="O130" s="159"/>
+      <c r="F122" s="156"/>
+      <c r="G122" s="156"/>
+      <c r="H122" s="156"/>
+      <c r="I122" s="156"/>
+      <c r="J122" s="156"/>
+      <c r="K122" s="156"/>
+      <c r="L122" s="156"/>
+      <c r="M122" s="156"/>
+      <c r="N122" s="156"/>
+      <c r="O122" s="157"/>
+    </row>
+    <row r="123" spans="2:15">
+      <c r="B123" s="155"/>
+      <c r="C123" s="156"/>
+      <c r="D123" s="156"/>
+      <c r="E123" s="156"/>
+      <c r="F123" s="156"/>
+      <c r="G123" s="156"/>
+      <c r="H123" s="156"/>
+      <c r="I123" s="156"/>
+      <c r="J123" s="156"/>
+      <c r="K123" s="156"/>
+      <c r="L123" s="156"/>
+      <c r="M123" s="156"/>
+      <c r="N123" s="156"/>
+      <c r="O123" s="157"/>
+    </row>
+    <row r="124" spans="2:15">
+      <c r="B124" s="155"/>
+      <c r="C124" s="156"/>
+      <c r="D124" s="156"/>
+      <c r="E124" s="156"/>
+      <c r="F124" s="156"/>
+      <c r="G124" s="156"/>
+      <c r="H124" s="156"/>
+      <c r="I124" s="156"/>
+      <c r="J124" s="156"/>
+      <c r="K124" s="156"/>
+      <c r="L124" s="156"/>
+      <c r="M124" s="156"/>
+      <c r="N124" s="156"/>
+      <c r="O124" s="157"/>
+    </row>
+    <row r="125" spans="2:15">
+      <c r="B125" s="155"/>
+      <c r="C125" s="156"/>
+      <c r="D125" s="156"/>
+      <c r="E125" s="156"/>
+      <c r="F125" s="156"/>
+      <c r="G125" s="156"/>
+      <c r="H125" s="156"/>
+      <c r="I125" s="156"/>
+      <c r="J125" s="156"/>
+      <c r="K125" s="156"/>
+      <c r="L125" s="156"/>
+      <c r="M125" s="156"/>
+      <c r="N125" s="156"/>
+      <c r="O125" s="157"/>
+    </row>
+    <row r="126" spans="2:15">
+      <c r="B126" s="155"/>
+      <c r="C126" s="156"/>
+      <c r="D126" s="156"/>
+      <c r="E126" s="156"/>
+      <c r="F126" s="156"/>
+      <c r="G126" s="156"/>
+      <c r="H126" s="156"/>
+      <c r="I126" s="156"/>
+      <c r="J126" s="156"/>
+      <c r="K126" s="156"/>
+      <c r="L126" s="156"/>
+      <c r="M126" s="156"/>
+      <c r="N126" s="156"/>
+      <c r="O126" s="157"/>
+    </row>
+    <row r="127" spans="2:15">
+      <c r="B127" s="155"/>
+      <c r="C127" s="156"/>
+      <c r="D127" s="156"/>
+      <c r="E127" s="156"/>
+      <c r="F127" s="156"/>
+      <c r="G127" s="156"/>
+      <c r="H127" s="156"/>
+      <c r="I127" s="156"/>
+      <c r="J127" s="156"/>
+      <c r="K127" s="156"/>
+      <c r="L127" s="156"/>
+      <c r="M127" s="156"/>
+      <c r="N127" s="156"/>
+      <c r="O127" s="157"/>
+    </row>
+    <row r="128" spans="2:15">
+      <c r="B128" s="155"/>
+      <c r="C128" s="156"/>
+      <c r="D128" s="156"/>
+      <c r="E128" s="156"/>
+      <c r="F128" s="156"/>
+      <c r="G128" s="156"/>
+      <c r="H128" s="156"/>
+      <c r="I128" s="156"/>
+      <c r="J128" s="156"/>
+      <c r="K128" s="156"/>
+      <c r="L128" s="156"/>
+      <c r="M128" s="156"/>
+      <c r="N128" s="156"/>
+      <c r="O128" s="157"/>
+    </row>
+    <row r="129" spans="2:15">
+      <c r="B129" s="155"/>
+      <c r="C129" s="156"/>
+      <c r="D129" s="156"/>
+      <c r="E129" s="156"/>
+      <c r="F129" s="156"/>
+      <c r="G129" s="156"/>
+      <c r="H129" s="156"/>
+      <c r="I129" s="156"/>
+      <c r="J129" s="156"/>
+      <c r="K129" s="156"/>
+      <c r="L129" s="156"/>
+      <c r="M129" s="156"/>
+      <c r="N129" s="156"/>
+      <c r="O129" s="157"/>
+    </row>
+    <row r="130" spans="2:15">
+      <c r="B130" s="155"/>
+      <c r="C130" s="156"/>
+      <c r="D130" s="156"/>
+      <c r="E130" s="156"/>
+      <c r="F130" s="156"/>
+      <c r="G130" s="156"/>
+      <c r="H130" s="156"/>
+      <c r="I130" s="156"/>
+      <c r="J130" s="156"/>
+      <c r="K130" s="156"/>
+      <c r="L130" s="156"/>
+      <c r="M130" s="156"/>
+      <c r="N130" s="156"/>
+      <c r="O130" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/industry/industry_chp_engine_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_engine_gas_power_fuelmix.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE38619-C760-9D4A-A0A3-96AE6D42409D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D750684-6DAE-3846-9A68-5EC0EDE0D1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="25540" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="25540" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>Source</t>
   </si>
@@ -636,6 +642,9 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -647,7 +656,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -853,6 +862,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1419,7 +1434,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1716,6 +1731,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2738,12 +2754,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2917,23 +2933,23 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3411,15 +3427,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="43">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="32"/>
-      <c r="I29" s="30" t="s">
-        <v>57</v>
+      <c r="I29" s="168" t="s">
+        <v>147</v>
       </c>
       <c r="J29" s="126"/>
     </row>
@@ -3663,30 +3679,30 @@
   </sheetPr>
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="70" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="70" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="71" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="71" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="71" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="71" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="71" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="70" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="71" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="71" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="71" customWidth="1"/>
     <col min="15" max="15" width="3" style="71" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="71" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="71" customWidth="1"/>
     <col min="17" max="17" width="3" style="71" customWidth="1"/>
-    <col min="18" max="18" width="69.5" style="70" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="70"/>
+    <col min="18" max="18" width="69.42578125" style="70" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4319,18 +4335,18 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
     <col min="10" max="10" width="32" style="46" customWidth="1"/>
-    <col min="11" max="11" width="75.5" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="11" max="11" width="75.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4476,7 +4492,7 @@
       <c r="J10" s="54"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" spans="2:11" ht="32">
+    <row r="11" spans="2:11" ht="34">
       <c r="B11" s="50"/>
       <c r="C11" s="58"/>
       <c r="D11" s="63"/>
@@ -4580,7 +4596,7 @@
       <c r="J17" s="61"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" ht="17">
       <c r="B18" s="50"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -4638,7 +4654,7 @@
       <c r="J21" s="61"/>
       <c r="K21" s="58"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" ht="17">
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
@@ -4706,12 +4722,12 @@
       <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="147" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="147" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="147" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="147"/>
+    <col min="1" max="1" width="5.42578125" style="147" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="147" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="147" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="147"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
